--- a/excel/Exceldb.xlsx
+++ b/excel/Exceldb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pycharm\django_project\DR_Chucks\TreesUni\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F824836-E40D-4732-B569-8562AEEE6884}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5252DE49-6023-4827-9957-0F015AC451B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E023C925-B722-48C9-83B6-03F823DE989D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="441">
   <si>
     <t>S/N</t>
   </si>
@@ -2126,8 +2126,44 @@
     <t xml:space="preserve">Data Defficient </t>
   </si>
   <si>
-    <r>
-      <t>Acacia muricata</t>
+    <t xml:space="preserve"> Okurugbedu</t>
+  </si>
+  <si>
+    <t>Hildegardia</t>
+  </si>
+  <si>
+    <t>Magnoliales</t>
+  </si>
+  <si>
+    <r>
+      <t>Polyalthia longifolia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sonn.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Least concerneded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Least concerned </t>
+  </si>
+  <si>
+    <t>Least concerned</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Least concerned</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adansonia digitata </t>
     </r>
     <r>
       <rPr>
@@ -2141,47 +2177,38 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Okurugbedu</t>
-  </si>
-  <si>
-    <t>Hildegardia</t>
-  </si>
-  <si>
-    <t>Magnoliales</t>
-  </si>
-  <si>
-    <r>
-      <t>Polyalthia longifolia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Sonn.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Least concerneded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least concerned </t>
-  </si>
-  <si>
-    <t>Least concerned</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Least concerned</t>
+    <r>
+      <t xml:space="preserve">Acacia muricata </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gentianales</t>
+  </si>
+  <si>
+    <t>Arecales</t>
+  </si>
+  <si>
+    <t>Sausage tree</t>
+  </si>
+  <si>
+    <t>Lamiales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2212,6 +2239,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2230,16 +2271,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2554,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A84D58-6B4A-4070-AF85-595B289943D0}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,212 +2643,257 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>260</v>
+      </c>
+      <c r="D2" t="s">
+        <v>424</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>354</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>218</v>
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>318</v>
+      </c>
+      <c r="D4" t="s">
+        <v>424</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" t="s">
-        <v>432</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F5" t="s">
-        <v>228</v>
+        <v>296</v>
+      </c>
+      <c r="D5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
+        <v>386</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>155</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
+        <v>387</v>
+      </c>
+      <c r="D7" t="s">
+        <v>429</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>155</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>309</v>
+      </c>
+      <c r="D8" t="s">
+        <v>429</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>260</v>
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>429</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>386</v>
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" t="s">
-        <v>432</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>387</v>
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" t="s">
-        <v>432</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>391</v>
+      </c>
+      <c r="D12" t="s">
+        <v>437</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
         <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>388</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" t="s">
-        <v>432</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
-      </c>
-      <c r="F14" t="s">
-        <v>224</v>
+        <v>368</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
         <v>432</v>
@@ -2812,547 +2901,643 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>263</v>
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>365</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>278</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>316</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>267</v>
+        <v>410</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>390</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>328</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>341</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>329</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E23" t="s">
         <v>95</v>
       </c>
-      <c r="F23" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
         <v>153</v>
       </c>
       <c r="H24" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>391</v>
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" t="s">
+        <v>438</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>439</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
         <v>153</v>
+      </c>
+      <c r="H26" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>392</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>302</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" t="s">
-        <v>432</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>425</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B29" t="s">
-        <v>383</v>
-      </c>
-      <c r="F29" t="s">
-        <v>229</v>
+        <v>394</v>
+      </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="B30" t="s">
+        <v>268</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>432</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>392</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
         <v>153</v>
-      </c>
-      <c r="H32" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>394</v>
+        <v>415</v>
+      </c>
+      <c r="B34" t="s">
+        <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>371</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>218</v>
+        <v>324</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B37" t="s">
-        <v>275</v>
+        <v>417</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
         <v>153</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>277</v>
+        <v>418</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>173</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>397</v>
+        <v>436</v>
+      </c>
+      <c r="B40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" t="s">
+        <v>422</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>96</v>
+        <v>385</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>255</v>
+      </c>
+      <c r="D41" t="s">
+        <v>422</v>
       </c>
       <c r="E41" t="s">
         <v>81</v>
       </c>
+      <c r="G41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>264</v>
+      </c>
+      <c r="D42" t="s">
+        <v>422</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>282</v>
+        <v>265</v>
+      </c>
+      <c r="D43" t="s">
+        <v>422</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>283</v>
+        <v>266</v>
+      </c>
+      <c r="D44" t="s">
+        <v>422</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>375</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>218</v>
+        <v>267</v>
+      </c>
+      <c r="D45" t="s">
+        <v>422</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s">
-        <v>381</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="D46" t="s">
+        <v>422</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>398</v>
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" t="s">
+        <v>422</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" t="s">
-        <v>432</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" t="s">
-        <v>284</v>
+        <v>401</v>
+      </c>
+      <c r="D48" t="s">
+        <v>422</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
         <v>153</v>
-      </c>
-      <c r="H48" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>294</v>
+      </c>
+      <c r="D49" t="s">
+        <v>422</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" t="s">
+        <v>422</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" t="s">
-        <v>433</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>331</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>238</v>
+      </c>
+      <c r="D51" t="s">
+        <v>422</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>399</v>
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
+        <v>422</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" t="s">
-        <v>432</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B53" t="s">
-        <v>370</v>
+        <v>407</v>
+      </c>
+      <c r="D53" t="s">
+        <v>422</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
         <v>156</v>
       </c>
       <c r="H53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>355</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
-      </c>
-      <c r="F54" t="s">
-        <v>236</v>
+        <v>307</v>
+      </c>
+      <c r="D54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>286</v>
+        <v>313</v>
+      </c>
+      <c r="D55" t="s">
+        <v>422</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" t="s">
-        <v>432</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
+      </c>
+      <c r="D56" t="s">
+        <v>422</v>
       </c>
       <c r="E56" t="s">
         <v>81</v>
@@ -3360,71 +3545,65 @@
       <c r="G56" t="s">
         <v>153</v>
       </c>
+      <c r="H56" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>317</v>
+      </c>
+      <c r="D57" t="s">
+        <v>422</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
         <v>153</v>
       </c>
       <c r="H57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B58" t="s">
-        <v>429</v>
-      </c>
-      <c r="C58" t="s">
-        <v>428</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
         <v>153</v>
       </c>
       <c r="H58" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>232</v>
+      </c>
+      <c r="D59" t="s">
+        <v>422</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="G59" t="s">
         <v>153</v>
-      </c>
-      <c r="H59" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3440,825 +3619,852 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>379</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="G61" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>347</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>403</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>243</v>
-      </c>
-      <c r="G63" t="s">
-        <v>153</v>
-      </c>
-      <c r="H63" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>404</v>
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
+        <v>295</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
-      </c>
-      <c r="G64" t="s">
-        <v>153</v>
-      </c>
-      <c r="H64" t="s">
-        <v>432</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>166</v>
+      </c>
+      <c r="G65" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s">
-        <v>294</v>
+        <v>380</v>
+      </c>
+      <c r="D66" t="s">
+        <v>420</v>
       </c>
       <c r="E66" t="s">
-        <v>81</v>
+        <v>106</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>274</v>
+      </c>
+      <c r="D67" t="s">
+        <v>420</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>165</v>
+        <v>421</v>
+      </c>
+      <c r="B68" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" t="s">
+        <v>427</v>
+      </c>
+      <c r="D68" t="s">
+        <v>420</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>106</v>
+      </c>
+      <c r="F68" t="s">
+        <v>58</v>
       </c>
       <c r="G68" t="s">
         <v>153</v>
       </c>
       <c r="H68" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
-        <v>296</v>
+        <v>327</v>
+      </c>
+      <c r="D69" t="s">
+        <v>420</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G69" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" t="s">
+        <v>424</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F70" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G70" t="s">
         <v>156</v>
       </c>
       <c r="H70" t="s">
-        <v>167</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>406</v>
+        <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>286</v>
+      </c>
+      <c r="D71" t="s">
+        <v>424</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G71" t="s">
         <v>153</v>
       </c>
       <c r="H71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>45</v>
+        <v>347</v>
+      </c>
+      <c r="B72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" t="s">
+        <v>424</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>156</v>
-      </c>
-      <c r="H72" t="s">
-        <v>433</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>242</v>
+      </c>
+      <c r="D73" t="s">
+        <v>424</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>109</v>
+      </c>
+      <c r="F73" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" t="s">
-        <v>301</v>
+        <v>413</v>
+      </c>
+      <c r="D74" t="s">
+        <v>424</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>109</v>
+      </c>
+      <c r="G74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H74" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" t="s">
-        <v>302</v>
+        <v>414</v>
+      </c>
+      <c r="D75" t="s">
+        <v>424</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="G75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>303</v>
+        <v>326</v>
+      </c>
+      <c r="D76" t="s">
+        <v>424</v>
       </c>
       <c r="E76" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>388</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
-      </c>
-      <c r="D77" t="s">
-        <v>422</v>
+        <v>261</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" t="s">
-        <v>239</v>
+        <v>69</v>
+      </c>
+      <c r="G77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H77" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="G78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H78" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>407</v>
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>284</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="F79" t="s">
+        <v>68</v>
       </c>
       <c r="G79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H79" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>377</v>
-      </c>
-      <c r="F80" t="s">
-        <v>228</v>
+        <v>285</v>
+      </c>
+      <c r="E80" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B81" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
-      </c>
-      <c r="F81" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="G81" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="F82" t="s">
+        <v>229</v>
+      </c>
+      <c r="G82" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>405</v>
       </c>
       <c r="B83" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="F83" t="s">
+        <v>222</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+      <c r="H83" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" t="s">
-        <v>361</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>218</v>
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>156</v>
+      </c>
+      <c r="H84" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>406</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>75</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="G85" t="s">
         <v>153</v>
       </c>
       <c r="H85" t="s">
-        <v>157</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B86" t="s">
-        <v>309</v>
-      </c>
-      <c r="D86" t="s">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="E86" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H86" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="G88" t="s">
         <v>153</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>62</v>
+        <v>281</v>
+      </c>
+      <c r="B90" t="s">
+        <v>282</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>153</v>
-      </c>
-      <c r="H90" t="s">
-        <v>426</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B91" t="s">
-        <v>374</v>
-      </c>
-      <c r="F91" t="s">
-        <v>231</v>
+        <v>397</v>
+      </c>
+      <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>54</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>306</v>
+      </c>
+      <c r="D92" t="s">
+        <v>423</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
+      </c>
+      <c r="F92" t="s">
+        <v>223</v>
       </c>
       <c r="G92" t="s">
         <v>153</v>
       </c>
       <c r="H92" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B94" t="s">
-        <v>382</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>218</v>
+        <v>62</v>
+      </c>
+      <c r="E94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="E96" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="G96" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="E97" t="s">
-        <v>95</v>
+        <v>164</v>
+      </c>
+      <c r="F97" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>410</v>
+        <v>129</v>
+      </c>
+      <c r="B98" t="s">
+        <v>311</v>
       </c>
       <c r="E98" t="s">
-        <v>95</v>
-      </c>
-      <c r="G98" t="s">
-        <v>153</v>
-      </c>
-      <c r="H98" t="s">
-        <v>432</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="E99" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" t="s">
-        <v>153</v>
-      </c>
-      <c r="H99" t="s">
-        <v>432</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B100" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
-      </c>
-      <c r="F100" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s">
         <v>153</v>
       </c>
       <c r="H100" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D102" t="s">
-        <v>424</v>
+        <v>412</v>
+      </c>
+      <c r="B102" t="s">
+        <v>378</v>
       </c>
       <c r="E102" t="s">
-        <v>109</v>
+        <v>158</v>
+      </c>
+      <c r="F102" t="s">
+        <v>234</v>
       </c>
       <c r="G102" t="s">
         <v>153</v>
       </c>
       <c r="H102" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>414</v>
+        <v>132</v>
+      </c>
+      <c r="B103" t="s">
+        <v>315</v>
       </c>
       <c r="E103" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" t="s">
-        <v>153</v>
-      </c>
-      <c r="H103" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>425</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>137</v>
-      </c>
-      <c r="F104" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
-      </c>
-      <c r="E105" t="s">
-        <v>139</v>
+        <v>369</v>
+      </c>
+      <c r="F105" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
-      </c>
-      <c r="E106" t="s">
-        <v>142</v>
+        <v>363</v>
+      </c>
+      <c r="F106" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
-      </c>
-      <c r="E107" t="s">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="F107" t="s">
-        <v>218</v>
-      </c>
-      <c r="G107" t="s">
-        <v>153</v>
-      </c>
-      <c r="H107" t="s">
-        <v>432</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>416</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
-      </c>
-      <c r="E108" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" t="s">
-        <v>153</v>
-      </c>
-      <c r="H108" t="s">
-        <v>432</v>
+        <v>371</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
-      </c>
-      <c r="E109" t="s">
-        <v>142</v>
+        <v>375</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>356</v>
       </c>
       <c r="B110" t="s">
-        <v>325</v>
-      </c>
-      <c r="E110" t="s">
-        <v>75</v>
+        <v>381</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E111" t="s">
-        <v>173</v>
-      </c>
-      <c r="G111" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" t="s">
-        <v>432</v>
+        <v>331</v>
+      </c>
+      <c r="B111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B112" t="s">
+        <v>330</v>
+      </c>
+      <c r="F112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B113" t="s">
+        <v>376</v>
+      </c>
+      <c r="F113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" t="s">
+        <v>377</v>
+      </c>
+      <c r="F114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B115" t="s">
+        <v>361</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" t="s">
+        <v>374</v>
+      </c>
+      <c r="F116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B117" t="s">
+        <v>382</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B118" t="s">
         <v>364</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E113" t="s">
-        <v>173</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G113" t="s">
-        <v>153</v>
-      </c>
-      <c r="H113" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B114" t="s">
-        <v>326</v>
-      </c>
-      <c r="E114" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B119" t="s">
         <v>373</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F119" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B116" t="s">
-        <v>327</v>
-      </c>
-      <c r="E116" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" t="s">
-        <v>81</v>
-      </c>
-      <c r="G117" t="s">
-        <v>153</v>
-      </c>
-      <c r="H117" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B118" t="s">
-        <v>328</v>
-      </c>
-      <c r="E118" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" t="s">
-        <v>329</v>
-      </c>
-      <c r="E119" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="146" spans="6:6" x14ac:dyDescent="0.25">
@@ -4271,8 +4477,8 @@
       <c r="F159" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H171">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:H159">
+    <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/Exceldb.xlsx
+++ b/excel/Exceldb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pycharm\django_project\DR_Chucks\TreesUni\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5252DE49-6023-4827-9957-0F015AC451B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BAAED-C1CB-41C2-A485-44F58E8177C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E023C925-B722-48C9-83B6-03F823DE989D}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet5!$1:$1</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="608">
   <si>
     <t>S/N</t>
   </si>
@@ -2000,12 +2001,6 @@
     <t>Antiaris toxicaria Lesch.</t>
   </si>
   <si>
-    <t>Azadirachta indica A.Juss</t>
-  </si>
-  <si>
-    <t>Carica papaya L.</t>
-  </si>
-  <si>
     <t>Cascabela thevetia Lippold.</t>
   </si>
   <si>
@@ -2042,9 +2037,6 @@
     <t>Gmelina arborea Roxb.</t>
   </si>
   <si>
-    <t>Khaya senegalensis A.Juss</t>
-  </si>
-  <si>
     <t>Kigelia africana Benth.</t>
   </si>
   <si>
@@ -2069,9 +2061,6 @@
     <t>Senna siamea Irwin.Barbney</t>
   </si>
   <si>
-    <t>Solanum betaceum Cav.</t>
-  </si>
-  <si>
     <t>Swietenia macrophylla King</t>
   </si>
   <si>
@@ -2081,23 +2070,536 @@
     <t>Terminalia catappa L.</t>
   </si>
   <si>
-    <t>Terminalia mantaly H.Perrier</t>
-  </si>
-  <si>
     <t>Thuja occidentalis L.</t>
   </si>
   <si>
-    <t>Thuja orientalis Franco.</t>
-  </si>
-  <si>
     <t>Dongoyaro</t>
   </si>
   <si>
     <t>Malvales</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hildergadia barteri </t>
+    <t>Fabales</t>
+  </si>
+  <si>
+    <t>Pinales</t>
+  </si>
+  <si>
+    <t>Sapindales</t>
+  </si>
+  <si>
+    <t>Rosy/Rosy Trumpet Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Defficient </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Okurugbedu</t>
+  </si>
+  <si>
+    <t>Hildegardia</t>
+  </si>
+  <si>
+    <t>Magnoliales</t>
+  </si>
+  <si>
+    <t>Least concerneded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Least concerned </t>
+  </si>
+  <si>
+    <t>Least concerned</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Least concerned</t>
+  </si>
+  <si>
+    <t>Gentianales</t>
+  </si>
+  <si>
+    <t>Arecales</t>
+  </si>
+  <si>
+    <t>Sausage tree</t>
+  </si>
+  <si>
+    <t>Lamiales</t>
+  </si>
+  <si>
+    <t>Genus and specie</t>
+  </si>
+  <si>
+    <t>S/ N</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Local name</t>
+  </si>
+  <si>
+    <t>Common name</t>
+  </si>
+  <si>
+    <t>Frequenc y</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Afzelia bella</t>
+  </si>
+  <si>
+    <t>Indigeno</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>Caesalpiniace</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>Apa</t>
+  </si>
+  <si>
+    <t>Afzelia</t>
+  </si>
+  <si>
+    <t>Ayunre</t>
+  </si>
+  <si>
+    <t>East Indian</t>
+  </si>
+  <si>
+    <t>Walnut</t>
+  </si>
+  <si>
+    <t>Alstonia</t>
+  </si>
+  <si>
+    <t>boonei</t>
+  </si>
+  <si>
+    <t>Awun</t>
+  </si>
+  <si>
+    <t>Anacardium</t>
+  </si>
+  <si>
+    <t>occidentale</t>
+  </si>
+  <si>
+    <t>Anacardiacea</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Kaju</t>
+  </si>
+  <si>
+    <t>Cashew</t>
+  </si>
+  <si>
+    <t>Anogeissus</t>
+  </si>
+  <si>
+    <t>leiocarpa</t>
+  </si>
+  <si>
+    <t>Ayin</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>birch</t>
+  </si>
+  <si>
+    <t>Azadirachta</t>
+  </si>
+  <si>
+    <t>indica</t>
+  </si>
+  <si>
+    <t>Dongoyar</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Neem</t>
+  </si>
+  <si>
+    <t>Panseke</t>
+  </si>
+  <si>
+    <t>Flame of</t>
+  </si>
+  <si>
+    <t>the forest</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>camaldulensi s</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Redgum</t>
+  </si>
+  <si>
+    <t>eucalyptu s</t>
+  </si>
+  <si>
+    <t>Eucalyptus torrelliana</t>
+  </si>
+  <si>
+    <t>Eucalypt us</t>
+  </si>
+  <si>
+    <t>Holarrhena floribunda</t>
+  </si>
+  <si>
+    <t>Indigeno us</t>
+  </si>
+  <si>
+    <t>Ako ire</t>
+  </si>
+  <si>
+    <t>False rubber</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Irvingia</t>
+  </si>
+  <si>
+    <t>gabonensis</t>
+  </si>
+  <si>
+    <t>Ooro</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>Oganwo</t>
+  </si>
+  <si>
+    <t>mahogan y</t>
+  </si>
+  <si>
+    <t>African mahogan</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Lannea</t>
+  </si>
+  <si>
+    <t>egregia</t>
+  </si>
+  <si>
+    <t>Opon</t>
+  </si>
+  <si>
+    <t>Leucaena</t>
+  </si>
+  <si>
+    <t>leucocephala</t>
+  </si>
+  <si>
+    <t>Milicia</t>
+  </si>
+  <si>
+    <t>excelsa</t>
+  </si>
+  <si>
+    <t>Moringa</t>
+  </si>
+  <si>
+    <t>oleifera</t>
+  </si>
+  <si>
+    <t>Ewe-</t>
+  </si>
+  <si>
+    <t>igbale</t>
+  </si>
+  <si>
+    <t>Pinus</t>
+  </si>
+  <si>
+    <t>caribeae</t>
+  </si>
+  <si>
+    <t>Aho</t>
+  </si>
+  <si>
+    <t>yaayaa</t>
+  </si>
+  <si>
+    <t>Pitch pine</t>
+  </si>
+  <si>
+    <t>Rauvolfia</t>
+  </si>
+  <si>
+    <t>vomitoria</t>
+  </si>
+  <si>
+    <t>Asofeyeje</t>
+  </si>
+  <si>
+    <t>Swizzle</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>Roystonea</t>
+  </si>
+  <si>
+    <t>regia</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>Senna fistula</t>
+  </si>
+  <si>
+    <t>Aidantoro</t>
+  </si>
+  <si>
+    <t>Purging</t>
+  </si>
+  <si>
+    <t>cassia</t>
+  </si>
+  <si>
+    <t>Sterculia</t>
+  </si>
+  <si>
+    <t>setigera</t>
+  </si>
+  <si>
+    <t>Sterculiaceae</t>
+  </si>
+  <si>
+    <t>Ose</t>
+  </si>
+  <si>
+    <t>Awere</t>
+  </si>
+  <si>
+    <t>Karaya</t>
+  </si>
+  <si>
+    <t>gum tree</t>
+  </si>
+  <si>
+    <t>Tectona</t>
+  </si>
+  <si>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>Terminalia</t>
+  </si>
+  <si>
+    <t>catappa</t>
+  </si>
+  <si>
+    <t>Furuntu</t>
+  </si>
+  <si>
+    <t>Tropical</t>
+  </si>
+  <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>superba</t>
+  </si>
+  <si>
+    <t>Idigbo</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>afara</t>
+  </si>
+  <si>
+    <t>Treculia</t>
+  </si>
+  <si>
+    <t>africana</t>
+  </si>
+  <si>
+    <t>Gberefuut</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>jackfruit</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Caesalpiniaceae</t>
+  </si>
+  <si>
+    <t>East Indian Walnut</t>
+  </si>
+  <si>
+    <t>kaju</t>
+  </si>
+  <si>
+    <t>Anogeissus leiocarpa</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
+    <t>False Rubber Tree</t>
+  </si>
+  <si>
+    <t>Lannea egregia</t>
+  </si>
+  <si>
+    <t>Ewe-igbale</t>
+  </si>
+  <si>
+    <t>Yaayaa</t>
+  </si>
+  <si>
+    <t>Rauvolfia vomitoria</t>
+  </si>
+  <si>
+    <t>Swizzle Stick</t>
+  </si>
+  <si>
+    <t>Purging cassia</t>
+  </si>
+  <si>
+    <t>Sterculia setigera</t>
+  </si>
+  <si>
+    <t>Ose awere</t>
+  </si>
+  <si>
+    <t>Karaya gum tree</t>
+  </si>
+  <si>
+    <t>Streculiaceae</t>
+  </si>
+  <si>
+    <t>Treculia africana</t>
+  </si>
+  <si>
+    <t>Wild Jackfruit</t>
+  </si>
+  <si>
+    <t>Gberefuutu</t>
+  </si>
+  <si>
+    <t>Acacia muricata L.</t>
+  </si>
+  <si>
+    <t>Adansonia digitata L.</t>
+  </si>
+  <si>
+    <t>Hildergadia barteri (Mast.) Kosterm</t>
+  </si>
+  <si>
+    <t>Polyalthia longifolia(Sonn.)</t>
+  </si>
+  <si>
+    <t>Annona cherimola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annona muricata </t>
+  </si>
+  <si>
+    <t>Cascabela thevetia</t>
+  </si>
+  <si>
+    <t>Citrus limon</t>
+  </si>
+  <si>
+    <t>Cordia africana</t>
+  </si>
+  <si>
+    <t>Eriobotrya japonica</t>
+  </si>
+  <si>
+    <t>Ficus citrifolia</t>
+  </si>
+  <si>
+    <t>Ficus natalensis</t>
+  </si>
+  <si>
+    <t>Glycyrrhiza glabra</t>
+  </si>
+  <si>
+    <t>Hildergadia barteri</t>
+  </si>
+  <si>
+    <t>Kigelia africana</t>
+  </si>
+  <si>
+    <t>Milicia excelsa</t>
+  </si>
+  <si>
+    <t>Philenoptera violacea</t>
+  </si>
+  <si>
+    <t>Robinia pseudoacacia</t>
+  </si>
+  <si>
+    <t>Solanum betaceum</t>
+  </si>
+  <si>
+    <t>Swietenia macrophylla</t>
+  </si>
+  <si>
+    <t>Swietenia mahagoni</t>
+  </si>
+  <si>
+    <t>Thuja occidentalis</t>
+  </si>
+  <si>
+    <t>George Bentham</t>
+  </si>
+  <si>
+    <r>
+      <t>Afzelia bella</t>
     </r>
     <r>
       <rPr>
@@ -2107,36 +2609,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Mast.) Kosterm</t>
-    </r>
-  </si>
-  <si>
-    <t>Fabales</t>
-  </si>
-  <si>
-    <t>Pinales</t>
-  </si>
-  <si>
-    <t>Sapindales</t>
-  </si>
-  <si>
-    <t>Rosy/Rosy Trumpet Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Defficient </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okurugbedu</t>
-  </si>
-  <si>
-    <t>Hildegardia</t>
-  </si>
-  <si>
-    <t>Magnoliales</t>
-  </si>
-  <si>
-    <r>
-      <t>Polyalthia longifolia</t>
+      <t>Harms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Albizia zygia </t>
     </r>
     <r>
       <rPr>
@@ -2146,24 +2624,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Sonn.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Least concerneded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least concerned </t>
-  </si>
-  <si>
-    <t>Least concerned</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Least concerned</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adansonia digitata </t>
+      <t>(DC.) J.F.Macbr.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabebuia rosea</t>
     </r>
     <r>
       <rPr>
@@ -2173,12 +2639,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>L.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Acacia muricata </t>
+      <t>(Bertol.) Bertero ex A.DC.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annona reticulata </t>
     </r>
     <r>
       <rPr>
@@ -2188,20 +2654,152 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>L.</t>
-    </r>
-  </si>
-  <si>
-    <t>Gentianales</t>
-  </si>
-  <si>
-    <t>Arecales</t>
-  </si>
-  <si>
-    <t>Sausage tree</t>
-  </si>
-  <si>
-    <t>Lamiales</t>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cocos nucifera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:666160-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hura crepitans </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:350060-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prunus persica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(L.) Batsch</t>
+    </r>
+  </si>
+  <si>
+    <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:1212858-2</t>
+  </si>
+  <si>
+    <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:77175800-1</t>
+  </si>
+  <si>
+    <t>https://powo.science.kew.org/taxon/urn:lsid:ipni.org:names:30011248-2</t>
+  </si>
+  <si>
+    <t>Ibepe</t>
+  </si>
+  <si>
+    <r>
+      <t>Carica papaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khaya senegalensis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.Juss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Azadirachta indica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.Juss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solanum betaceum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cav.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thuja orientalis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Franco.</t>
+    </r>
+  </si>
+  <si>
+    <t>Brassicales</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -2275,12 +2873,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2596,31 +3205,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A84D58-6B4A-4070-AF85-595B289943D0}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>253</v>
+      <c r="B1" s="7" t="s">
+        <v>607</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>252</v>
@@ -2640,1831 +3251,2463 @@
       <c r="H1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>260</v>
+        <v>601</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" t="s">
+        <v>600</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>606</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" t="s">
-        <v>424</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>318</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>218</v>
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
       </c>
       <c r="G5" t="s">
         <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="I5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>386</v>
+        <v>602</v>
+      </c>
+      <c r="C6" t="s">
+        <v>488</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B8" t="s">
-        <v>309</v>
+        <v>603</v>
+      </c>
+      <c r="C8" t="s">
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G8" t="s">
         <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="I8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>429</v>
+        <v>604</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
         <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
+        <v>378</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" t="s">
-        <v>437</v>
+        <v>590</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" t="s">
+        <v>418</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>259</v>
+        <v>591</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>419</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>391</v>
+        <v>592</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>593</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="I12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" t="s">
-        <v>437</v>
+        <v>594</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>595</v>
       </c>
       <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
+        <v>419</v>
+      </c>
+      <c r="I13" t="s">
+        <v>290</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>424</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>419</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I17" t="s">
+        <v>380</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" t="s">
+        <v>423</v>
+      </c>
+      <c r="I19" t="s">
+        <v>360</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" t="s">
+        <v>371</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" t="s">
+        <v>375</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" t="s">
+        <v>381</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
+        <v>296</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I24" t="s">
+        <v>361</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14" t="s">
-        <v>437</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="G14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" t="s">
-        <v>437</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>423</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>273</v>
-      </c>
-      <c r="D25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>368</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B26" t="s">
-        <v>439</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>440</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>55</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="G26" t="s">
         <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" t="s">
+        <v>382</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" t="s">
-        <v>425</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>440</v>
+        <v>411</v>
+      </c>
+      <c r="C28" t="s">
+        <v>532</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" t="s">
+        <v>423</v>
+      </c>
+      <c r="I28" t="s">
+        <v>322</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" t="s">
+        <v>364</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B30" t="s">
-        <v>268</v>
+        <v>605</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
+        <v>173</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="G30" t="s">
         <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B31" t="s">
-        <v>360</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" t="s">
+        <v>383</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" t="s">
+        <v>423</v>
+      </c>
+      <c r="I33" t="s">
+        <v>370</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" t="s">
+        <v>488</v>
+      </c>
+      <c r="D34" t="s">
+        <v>417</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F35" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" t="s">
+        <v>233</v>
+      </c>
+      <c r="I36" t="s">
+        <v>376</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+      <c r="I38" t="s">
+        <v>373</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F39" t="s">
+        <v>231</v>
+      </c>
+      <c r="I39" t="s">
+        <v>374</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F40" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s">
         <v>153</v>
       </c>
-      <c r="H31" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H41" t="s">
+        <v>424</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
+        <v>226</v>
+      </c>
+      <c r="I42" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" t="s">
-        <v>321</v>
-      </c>
-      <c r="E33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B34" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" t="s">
-        <v>324</v>
-      </c>
-      <c r="E35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="H43" t="s">
+        <v>425</v>
+      </c>
+      <c r="I43" t="s">
+        <v>284</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
+      </c>
+      <c r="I45" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F47" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" t="s">
+        <v>554</v>
+      </c>
+      <c r="D48" t="s">
         <v>416</v>
       </c>
-      <c r="B36" t="s">
-        <v>323</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E38" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" t="s">
-        <v>422</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B41" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" t="s">
-        <v>422</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" t="s">
-        <v>422</v>
-      </c>
-      <c r="E42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>265</v>
-      </c>
-      <c r="D43" t="s">
-        <v>422</v>
-      </c>
-      <c r="E43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" t="s">
-        <v>422</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" t="s">
-        <v>422</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" t="s">
-        <v>422</v>
-      </c>
-      <c r="E46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H46" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>279</v>
-      </c>
-      <c r="D47" t="s">
-        <v>422</v>
-      </c>
-      <c r="E47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D48" t="s">
-        <v>422</v>
-      </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>168</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="G48" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>423</v>
+      </c>
+      <c r="I48" t="s">
+        <v>306</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" t="s">
-        <v>294</v>
+        <v>567</v>
+      </c>
+      <c r="C49" t="s">
+        <v>420</v>
       </c>
       <c r="D49" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" t="s">
+        <v>425</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>303</v>
+        <v>568</v>
       </c>
       <c r="D50" t="s">
         <v>422</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" t="s">
+        <v>309</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" t="s">
-        <v>238</v>
-      </c>
-      <c r="D51" t="s">
-        <v>422</v>
+        <v>24</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" t="s">
-        <v>305</v>
-      </c>
-      <c r="D52" t="s">
-        <v>422</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" t="s">
+        <v>424</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D53" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
+        <v>235</v>
       </c>
       <c r="G53" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" t="s">
+        <v>423</v>
+      </c>
+      <c r="I53" t="s">
+        <v>379</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C54" t="s">
+        <v>444</v>
+      </c>
+      <c r="D54" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" t="s">
+        <v>546</v>
+      </c>
+      <c r="G54" t="s">
         <v>156</v>
       </c>
-      <c r="H53" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>307</v>
-      </c>
-      <c r="D54" t="s">
-        <v>422</v>
-      </c>
-      <c r="E54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>445</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" t="s">
-        <v>313</v>
+        <v>385</v>
+      </c>
+      <c r="C55" t="s">
+        <v>446</v>
       </c>
       <c r="D55" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E55" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55" t="s">
+        <v>423</v>
+      </c>
+      <c r="I55" t="s">
+        <v>547</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D56" t="s">
-        <v>422</v>
+        <v>589</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" t="s">
-        <v>153</v>
-      </c>
-      <c r="H56" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="I56" t="s">
+        <v>257</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B57" t="s">
-        <v>317</v>
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>451</v>
       </c>
       <c r="D57" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>153</v>
-      </c>
-      <c r="H57" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="I57" t="s">
+        <v>258</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>153</v>
-      </c>
-      <c r="H58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s">
+        <v>259</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B59" t="s">
-        <v>232</v>
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>548</v>
       </c>
       <c r="D59" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="G59" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" t="s">
-        <v>292</v>
+        <v>386</v>
+      </c>
+      <c r="D60" t="s">
+        <v>422</v>
       </c>
       <c r="E60" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G60" t="s">
+        <v>153</v>
+      </c>
+      <c r="H60" t="s">
+        <v>423</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B61" t="s">
-        <v>379</v>
+        <v>387</v>
+      </c>
+      <c r="D61" t="s">
+        <v>422</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="G61" t="s">
         <v>153</v>
       </c>
       <c r="H61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" t="s">
-        <v>320</v>
+        <v>549</v>
+      </c>
+      <c r="C62" t="s">
+        <v>460</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G62" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" t="s">
+        <v>550</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="E63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" t="s">
+        <v>423</v>
+      </c>
+      <c r="I63" t="s">
+        <v>261</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s">
+        <v>263</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>165</v>
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>415</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s">
+        <v>264</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>415</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s">
+        <v>265</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>415</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s">
+        <v>266</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s">
+        <v>267</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" t="s">
+        <v>427</v>
+      </c>
+      <c r="E69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s">
         <v>153</v>
       </c>
-      <c r="H65" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B66" t="s">
-        <v>380</v>
-      </c>
-      <c r="D66" t="s">
-        <v>420</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="H69" t="s">
+        <v>423</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+      <c r="H71" t="s">
+        <v>423</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="I72" t="s">
+        <v>274</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B67" t="s">
-        <v>274</v>
-      </c>
-      <c r="D67" t="s">
-        <v>420</v>
-      </c>
-      <c r="E67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B68" t="s">
-        <v>428</v>
-      </c>
-      <c r="C68" t="s">
-        <v>427</v>
-      </c>
-      <c r="D68" t="s">
-        <v>420</v>
-      </c>
-      <c r="E68" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" t="s">
-        <v>153</v>
-      </c>
-      <c r="H68" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" t="s">
-        <v>420</v>
-      </c>
-      <c r="E69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B70" t="s">
-        <v>262</v>
-      </c>
-      <c r="C70" t="s">
-        <v>419</v>
-      </c>
-      <c r="D70" t="s">
-        <v>424</v>
-      </c>
-      <c r="E70" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" t="s">
-        <v>237</v>
-      </c>
-      <c r="G70" t="s">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E73" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" t="s">
         <v>156</v>
       </c>
-      <c r="H70" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" t="s">
-        <v>286</v>
-      </c>
-      <c r="D71" t="s">
-        <v>424</v>
-      </c>
-      <c r="E71" t="s">
-        <v>109</v>
-      </c>
-      <c r="G71" t="s">
-        <v>153</v>
-      </c>
-      <c r="H71" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B72" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" t="s">
-        <v>424</v>
-      </c>
-      <c r="E72" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B73" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" t="s">
-        <v>424</v>
-      </c>
-      <c r="E73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" t="s">
-        <v>243</v>
-      </c>
-      <c r="G73" t="s">
-        <v>153</v>
-      </c>
       <c r="H73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D74" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F74" s="5"/>
       <c r="G74" t="s">
         <v>153</v>
       </c>
       <c r="H74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="I74" t="s">
+        <v>275</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D75" t="s">
-        <v>424</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
-      </c>
-      <c r="G75" t="s">
+        <v>276</v>
+      </c>
+      <c r="I75" t="s">
+        <v>277</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E76" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" t="s">
         <v>153</v>
       </c>
-      <c r="H75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" t="s">
-        <v>326</v>
-      </c>
-      <c r="D76" t="s">
-        <v>424</v>
-      </c>
-      <c r="E76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J76" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B77" t="s">
-        <v>261</v>
+        <v>96</v>
+      </c>
+      <c r="D77" t="s">
+        <v>415</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
-      </c>
-      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s">
+        <v>279</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
         <v>153</v>
       </c>
-      <c r="H77" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>280</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>69</v>
-      </c>
-      <c r="F79" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" t="s">
+        <v>98</v>
+      </c>
+      <c r="I79" t="s">
+        <v>282</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>283</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E81" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
         <v>153</v>
       </c>
-      <c r="H79" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B80" t="s">
-        <v>285</v>
-      </c>
-      <c r="E80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E81" t="s">
-        <v>69</v>
-      </c>
-      <c r="G81" t="s">
-        <v>156</v>
-      </c>
-      <c r="H81" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B82" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E82" t="s">
         <v>69</v>
       </c>
-      <c r="F82" t="s">
-        <v>229</v>
-      </c>
       <c r="G82" t="s">
         <v>156</v>
       </c>
       <c r="H82" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B83" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
         <v>69</v>
       </c>
-      <c r="F83" t="s">
-        <v>222</v>
-      </c>
-      <c r="G83" t="s">
-        <v>156</v>
-      </c>
-      <c r="H83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>285</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>30</v>
+        <v>397</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="G84" t="s">
         <v>156</v>
       </c>
       <c r="H84" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B85" t="s">
-        <v>298</v>
+        <v>154</v>
+      </c>
+      <c r="D85" t="s">
+        <v>417</v>
       </c>
       <c r="E85" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G85" t="s">
         <v>153</v>
       </c>
       <c r="H85" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="I85" t="s">
+        <v>286</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>45</v>
+        <v>399</v>
+      </c>
+      <c r="D86" t="s">
+        <v>415</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s">
+        <v>153</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C87" t="s">
+        <v>480</v>
+      </c>
+      <c r="E87" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" t="s">
         <v>156</v>
       </c>
-      <c r="H86" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" t="s">
-        <v>283</v>
-      </c>
-      <c r="E87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>551</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" t="s">
-        <v>225</v>
+        <v>107</v>
+      </c>
+      <c r="C88" t="s">
+        <v>485</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="G88" t="s">
+        <v>156</v>
+      </c>
+      <c r="I88" t="s">
+        <v>292</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E89" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" t="s">
         <v>153</v>
       </c>
-      <c r="H88" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89" t="s">
-        <v>280</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>423</v>
+      </c>
+      <c r="I89" t="s">
+        <v>429</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B90" t="s">
-        <v>282</v>
+        <v>552</v>
+      </c>
+      <c r="C90" t="s">
+        <v>494</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" t="s">
+        <v>153</v>
+      </c>
+      <c r="I90" t="s">
+        <v>492</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>397</v>
+        <v>110</v>
+      </c>
+      <c r="D91" t="s">
+        <v>417</v>
       </c>
       <c r="E91" t="s">
-        <v>168</v>
-      </c>
-      <c r="G91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="I91" t="s">
+        <v>293</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B92" t="s">
-        <v>306</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E92" t="s">
-        <v>168</v>
-      </c>
-      <c r="F92" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
         <v>153</v>
       </c>
-      <c r="H92" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>294</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" t="s">
-        <v>312</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D93" s="5"/>
       <c r="E93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="I93" t="s">
+        <v>295</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G94" t="s">
         <v>153</v>
       </c>
       <c r="H94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C95" t="s">
+        <v>553</v>
+      </c>
+      <c r="E95" t="s">
+        <v>174</v>
+      </c>
+      <c r="G95" t="s">
+        <v>156</v>
+      </c>
+      <c r="H95" t="s">
+        <v>423</v>
+      </c>
+      <c r="I95" t="s">
+        <v>298</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E96" t="s">
+        <v>299</v>
+      </c>
+      <c r="I96" t="s">
         <v>300</v>
       </c>
-      <c r="E95" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E96" t="s">
-        <v>164</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="J96" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="I97" t="s">
+        <v>301</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E98" t="s">
+        <v>137</v>
+      </c>
+      <c r="I98" t="s">
+        <v>302</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" t="s">
+        <v>415</v>
+      </c>
+      <c r="E99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="I99" t="s">
+        <v>303</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" t="s">
+        <v>415</v>
+      </c>
+      <c r="E100" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s">
+        <v>305</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D101" t="s">
+        <v>415</v>
+      </c>
+      <c r="E101" t="s">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s">
         <v>156</v>
       </c>
-      <c r="H96" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" t="s">
-        <v>271</v>
-      </c>
-      <c r="E97" t="s">
-        <v>164</v>
-      </c>
-      <c r="F97" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="H101" t="s">
+        <v>423</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" t="s">
+        <v>415</v>
+      </c>
+      <c r="E102" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s">
+        <v>307</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103" t="s">
+        <v>308</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D104" s="5"/>
+      <c r="E104" t="s">
+        <v>310</v>
+      </c>
+      <c r="I104" t="s">
         <v>311</v>
       </c>
-      <c r="E98" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B99" t="s">
-        <v>263</v>
-      </c>
-      <c r="E99" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B100" t="s">
-        <v>275</v>
-      </c>
-      <c r="E100" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="J104" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" t="s">
+        <v>169</v>
+      </c>
+      <c r="I105" t="s">
+        <v>312</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" t="s">
+        <v>415</v>
+      </c>
+      <c r="E106" t="s">
+        <v>81</v>
+      </c>
+      <c r="I106" t="s">
+        <v>313</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C107" t="s">
+        <v>510</v>
+      </c>
+      <c r="E107" t="s">
+        <v>75</v>
+      </c>
+      <c r="G107" t="s">
+        <v>156</v>
+      </c>
+      <c r="I107" t="s">
+        <v>556</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" t="s">
+        <v>314</v>
+      </c>
+      <c r="I108" t="s">
+        <v>315</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D109" t="s">
+        <v>415</v>
+      </c>
+      <c r="E109" t="s">
+        <v>81</v>
+      </c>
+      <c r="G109" t="s">
         <v>153</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H109" t="s">
+        <v>423</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+      <c r="G110" t="s">
+        <v>153</v>
+      </c>
+      <c r="I110" t="s">
+        <v>316</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E111" t="s">
+        <v>95</v>
+      </c>
+      <c r="G111" t="s">
+        <v>153</v>
+      </c>
+      <c r="H111" t="s">
+        <v>423</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C112" t="s">
+        <v>518</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="G112" t="s">
+        <v>153</v>
+      </c>
+      <c r="I112" t="s">
+        <v>557</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" t="s">
+        <v>415</v>
+      </c>
+      <c r="E113" t="s">
+        <v>81</v>
+      </c>
+      <c r="G113" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" t="s">
+        <v>423</v>
+      </c>
+      <c r="I113" t="s">
+        <v>317</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" t="s">
+        <v>417</v>
+      </c>
+      <c r="E114" t="s">
+        <v>111</v>
+      </c>
+      <c r="I114" t="s">
+        <v>318</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C115" t="s">
+        <v>559</v>
+      </c>
+      <c r="E115" t="s">
+        <v>561</v>
+      </c>
+      <c r="G115" t="s">
+        <v>156</v>
+      </c>
+      <c r="I115" t="s">
+        <v>560</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" t="s">
+        <v>417</v>
+      </c>
+      <c r="E116" t="s">
+        <v>109</v>
+      </c>
+      <c r="G116" t="s">
+        <v>153</v>
+      </c>
+      <c r="H116" t="s">
+        <v>162</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D117" t="s">
+        <v>417</v>
+      </c>
+      <c r="E117" t="s">
+        <v>109</v>
+      </c>
+      <c r="G117" t="s">
+        <v>153</v>
+      </c>
+      <c r="H117" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" t="s">
-        <v>301</v>
-      </c>
-      <c r="E101" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="J117" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" t="s">
+        <v>139</v>
+      </c>
+      <c r="G118" t="s">
+        <v>153</v>
+      </c>
+      <c r="I118" t="s">
+        <v>320</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E119" t="s">
+        <v>142</v>
+      </c>
+      <c r="I119" t="s">
+        <v>321</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>536</v>
+      </c>
+      <c r="E120" t="s">
+        <v>142</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" t="s">
+        <v>156</v>
+      </c>
+      <c r="I120" t="s">
+        <v>324</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" t="s">
+        <v>427</v>
+      </c>
+      <c r="E121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="I121" t="s">
+        <v>325</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B102" t="s">
-        <v>378</v>
-      </c>
-      <c r="E102" t="s">
-        <v>158</v>
-      </c>
-      <c r="F102" t="s">
-        <v>234</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="E122" t="s">
+        <v>173</v>
+      </c>
+      <c r="G122" t="s">
         <v>153</v>
       </c>
-      <c r="H102" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103" t="s">
-        <v>315</v>
-      </c>
-      <c r="E103" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B104" t="s">
-        <v>277</v>
-      </c>
-      <c r="E104" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B105" t="s">
-        <v>369</v>
-      </c>
-      <c r="F105" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B106" t="s">
-        <v>363</v>
-      </c>
-      <c r="F106" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B107" t="s">
-        <v>383</v>
-      </c>
-      <c r="F107" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B108" t="s">
-        <v>371</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B109" t="s">
-        <v>375</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B110" t="s">
-        <v>381</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B111" t="s">
-        <v>214</v>
-      </c>
-      <c r="F111" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B112" t="s">
-        <v>330</v>
-      </c>
-      <c r="F112" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B113" t="s">
-        <v>376</v>
-      </c>
-      <c r="F113" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B114" t="s">
-        <v>377</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B115" t="s">
-        <v>361</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B116" t="s">
-        <v>374</v>
-      </c>
-      <c r="F116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B117" t="s">
-        <v>382</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B118" t="s">
-        <v>364</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B119" t="s">
-        <v>373</v>
-      </c>
-      <c r="F119" t="s">
-        <v>246</v>
+      <c r="H122" t="s">
+        <v>423</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C123" t="s">
+        <v>564</v>
+      </c>
+      <c r="E123" t="s">
+        <v>69</v>
+      </c>
+      <c r="G123" t="s">
+        <v>156</v>
+      </c>
+      <c r="I123" t="s">
+        <v>563</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124" t="s">
+        <v>417</v>
+      </c>
+      <c r="E124" t="s">
+        <v>109</v>
+      </c>
+      <c r="I124" t="s">
+        <v>326</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" t="s">
+        <v>414</v>
+      </c>
+      <c r="E125" t="s">
+        <v>106</v>
+      </c>
+      <c r="I125" t="s">
+        <v>327</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" t="s">
+        <v>415</v>
+      </c>
+      <c r="E126" t="s">
+        <v>81</v>
+      </c>
+      <c r="G126" t="s">
+        <v>153</v>
+      </c>
+      <c r="H126" t="s">
+        <v>423</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I127" t="s">
+        <v>328</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E128" t="s">
+        <v>95</v>
+      </c>
+      <c r="I128" t="s">
+        <v>329</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="6:6" x14ac:dyDescent="0.25">
@@ -4478,10 +5721,17 @@
     </row>
   </sheetData>
   <sortState ref="A2:H159">
-    <sortCondition ref="E1"/>
+    <sortCondition ref="F1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{CB3A6996-1752-4B4B-BF52-4CF096C8F421}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{C3315F15-7229-4522-9C29-4C7D65175761}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{408A87EC-4D5B-47C4-8890-893B7BB8C172}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{AF7C8E92-6DFC-4D93-92DB-909A34DC8A44}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{E1EB78E6-977D-4E41-BDF1-51E3DA90D748}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -7260,4 +8510,1297 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9427F26A-4943-49A3-9452-DE3C2B738625}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" t="s">
+        <v>461</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
+        <v>474</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" t="s">
+        <v>475</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" t="s">
+        <v>477</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F20" t="s">
+        <v>481</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" t="s">
+        <v>482</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F22" t="s">
+        <v>486</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" t="s">
+        <v>441</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" t="s">
+        <v>487</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F24" t="s">
+        <v>461</v>
+      </c>
+      <c r="G24" s="9">
+        <v>3</v>
+      </c>
+      <c r="H24" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" t="s">
+        <v>489</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>14</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" t="s">
+        <v>490</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" t="s">
+        <v>491</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>455</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2</v>
+      </c>
+      <c r="H30" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>499</v>
+      </c>
+      <c r="C34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>501</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" t="s">
+        <v>502</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>503</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>505</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" t="s">
+        <v>506</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>508</v>
+      </c>
+      <c r="C38" t="s">
+        <v>440</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F38" t="s">
+        <v>511</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" t="s">
+        <v>509</v>
+      </c>
+      <c r="C39" t="s">
+        <v>441</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" t="s">
+        <v>512</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F40" t="s">
+        <v>515</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
+      <c r="H40" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" t="s">
+        <v>516</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>22</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" t="s">
+        <v>520</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E44" t="s">
+        <v>524</v>
+      </c>
+      <c r="F44" t="s">
+        <v>526</v>
+      </c>
+      <c r="G44" s="9">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" t="s">
+        <v>522</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" t="s">
+        <v>525</v>
+      </c>
+      <c r="F45" t="s">
+        <v>527</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" s="9">
+        <v>4</v>
+      </c>
+      <c r="H46" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s">
+        <v>529</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="F48" t="s">
+        <v>533</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s">
+        <v>531</v>
+      </c>
+      <c r="C49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" t="s">
+        <v>534</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>530</v>
+      </c>
+      <c r="C50" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="F50" t="s">
+        <v>537</v>
+      </c>
+      <c r="G50" s="9">
+        <v>6</v>
+      </c>
+      <c r="H50" s="9">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s">
+        <v>535</v>
+      </c>
+      <c r="C51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" t="s">
+        <v>538</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>539</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
+        <v>541</v>
+      </c>
+      <c r="F52" t="s">
+        <v>543</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" t="s">
+        <v>540</v>
+      </c>
+      <c r="C53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" t="s">
+        <v>542</v>
+      </c>
+      <c r="F53" t="s">
+        <v>544</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9">
+        <v>76</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="155">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G50:G51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/Exceldb.xlsx
+++ b/excel/Exceldb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pycharm\django_project\DR_Chucks\TreesUni\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3813044-80B4-468A-AF67-4A9C42758A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB2E76-C8AE-4A96-A557-7A2EBB9AF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E023C925-B722-48C9-83B6-03F823DE989D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="944">
   <si>
     <t>S/N</t>
   </si>
@@ -3781,6 +3781,9 @@
   </si>
   <si>
     <t>Agbon</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -3854,7 +3857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3878,6 +3881,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4201,3893 +4205,4194 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>575</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>252</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>592</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>153</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>399</v>
+        <v>943</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>726</v>
+        <v>542</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>406</v>
+      <c r="H3" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>529</v>
+        <v>379</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>835</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>660</v>
       </c>
       <c r="G4" t="s">
         <v>155</v>
       </c>
-      <c r="H4" t="s">
-        <v>399</v>
+      <c r="H4" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s">
         <v>938</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B5" t="s">
-        <v>489</v>
+        <v>661</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>662</v>
       </c>
       <c r="C5" t="s">
-        <v>812</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>843</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>832</v>
+        <v>425</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>893</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>406</v>
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>534</v>
+        <v>525</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>852</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>667</v>
+        <v>640</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" t="s">
+        <v>943</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>905</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>406</v>
+        <v>943</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>257</v>
+        <v>368</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>860</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>677</v>
+        <v>663</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>859</v>
       </c>
       <c r="G7" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>822</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J7" t="s">
-        <v>528</v>
+        <v>813</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="G8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" t="s">
-        <v>399</v>
-      </c>
       <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>525</v>
+        <v>257</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>585</v>
+        <v>668</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" t="s">
+        <v>943</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>914</v>
       </c>
       <c r="G9" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>401</v>
+      <c r="H9" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>834</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="G10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>574</v>
-      </c>
       <c r="I10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" t="s">
-        <v>297</v>
+        <v>436</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>152</v>
+        <v>384</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C11" t="s">
+        <v>943</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>609</v>
+        <v>405</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>853</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>822</v>
+      <c r="H11" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" t="s">
-        <v>321</v>
+        <v>923</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C12" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="C12" t="s">
+        <v>943</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>851</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="G12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>819</v>
-      </c>
       <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>539</v>
+        <v>675</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>569</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C13" t="s">
+        <v>943</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="G13" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>574</v>
+      <c r="H13" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" t="s">
-        <v>267</v>
+        <v>933</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
-        <v>837</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>787</v>
+        <v>676</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>860</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>822</v>
+      <c r="H14" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>323</v>
+        <v>528</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>220</v>
+        <v>678</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>166</v>
+        <v>943</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>584</v>
+        <v>819</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>861</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>155</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>819</v>
+        <v>152</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>220</v>
+        <v>260</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>672</v>
+        <v>631</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" t="s">
+        <v>943</v>
+      </c>
+      <c r="D16" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" t="s">
+        <v>633</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>903</v>
       </c>
       <c r="G16" t="s">
         <v>153</v>
       </c>
-      <c r="H16" t="s">
-        <v>401</v>
+      <c r="H16" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" t="s">
-        <v>436</v>
+        <v>362</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B17" t="s">
-        <v>467</v>
+        <v>577</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>943</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>876</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>582</v>
+        <v>400</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>908</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>401</v>
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" t="s">
-        <v>241</v>
+        <v>935</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>161</v>
+        <v>571</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" t="s">
+        <v>397</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>898</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>620</v>
+        <v>401</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>401</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" t="s">
-        <v>243</v>
+        <v>261</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>589</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>588</v>
+        <v>681</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C19" t="s">
+        <v>943</v>
+      </c>
+      <c r="D19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>854</v>
       </c>
       <c r="G19" t="s">
         <v>155</v>
       </c>
-      <c r="H19" t="s">
-        <v>824</v>
+      <c r="H19" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" t="s">
-        <v>932</v>
+        <v>262</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B20" t="s">
-        <v>939</v>
-      </c>
-      <c r="C20" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="C20" t="s">
+        <v>943</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>863</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="G20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>398</v>
-      </c>
       <c r="I20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" t="s">
-        <v>404</v>
+        <v>263</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>464</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>166</v>
+        <v>684</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C21" t="s">
+        <v>943</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>728</v>
+        <v>399</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>834</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>823</v>
+        <v>153</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="I21" t="s">
-        <v>290</v>
-      </c>
-      <c r="J21" t="s">
-        <v>291</v>
+        <v>264</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B22" t="s">
-        <v>473</v>
-      </c>
-      <c r="C22" s="15"/>
+        <v>686</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C22" t="s">
+        <v>943</v>
+      </c>
       <c r="D22" s="15" t="s">
-        <v>873</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>732</v>
+        <v>399</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>910</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>401</v>
+        <v>153</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" t="s">
-        <v>471</v>
+        <v>265</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B23" t="s">
-        <v>536</v>
-      </c>
-      <c r="C23" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" t="s">
+        <v>943</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>847</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="G23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="J23" t="s">
-        <v>537</v>
+      <c r="I23" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>447</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>875</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>580</v>
+        <v>570</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C24" t="s">
+        <v>569</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G24" t="s">
         <v>153</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>399</v>
+      <c r="H24" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" t="s">
-        <v>218</v>
+        <v>267</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>532</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>648</v>
+        <v>636</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" t="s">
+        <v>943</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>841</v>
       </c>
       <c r="G25" t="s">
         <v>153</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>400</v>
+      <c r="H25" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" t="s">
-        <v>305</v>
+        <v>364</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>760</v>
+        <v>634</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>911</v>
       </c>
       <c r="G26" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>826</v>
+      <c r="H26" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I26" t="s">
-        <v>309</v>
-      </c>
-      <c r="J26" t="s">
-        <v>310</v>
+        <v>917</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C27" t="s">
+        <v>497</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>810</v>
       </c>
       <c r="G27" t="s">
         <v>153</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" t="s">
-        <v>933</v>
+        <v>152</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>940</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>566</v>
+        <v>386</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>885</v>
       </c>
       <c r="G28" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>825</v>
+      <c r="H28" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>916</v>
+        <v>359</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>564</v>
+        <v>807</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C29" t="s">
+        <v>943</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>912</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>823</v>
+      <c r="H29" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" t="s">
-        <v>289</v>
+        <v>815</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>941</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C30" t="s">
+        <v>943</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="G30" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>401</v>
+      <c r="H30" s="17" t="s">
+        <v>814</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" t="s">
-        <v>295</v>
+        <v>833</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>603</v>
+        <v>915</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E31" t="s">
+        <v>615</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>897</v>
       </c>
       <c r="G31" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>406</v>
+      <c r="H31" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" t="s">
-        <v>367</v>
+        <v>382</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>156</v>
+        <v>693</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>882</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>586</v>
+        <v>401</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>896</v>
       </c>
       <c r="G32" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>828</v>
+      <c r="H32" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
-      </c>
-      <c r="J32" t="s">
-        <v>377</v>
+        <v>920</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>691</v>
+        <v>612</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>896</v>
       </c>
       <c r="G33" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>821</v>
+      <c r="H33" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
-      </c>
-      <c r="J33" t="s">
-        <v>833</v>
+        <v>270</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>834</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>685</v>
+        <v>888</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G34" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>399</v>
+      <c r="H34" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" t="s">
-        <v>264</v>
+        <v>272</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>858</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>654</v>
+        <v>695</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>913</v>
       </c>
       <c r="G35" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>407</v>
+      <c r="H35" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" t="s">
-        <v>936</v>
+        <v>273</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>152</v>
+        <v>387</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>854</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>680</v>
+        <v>818</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>834</v>
       </c>
       <c r="G36" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>827</v>
+      <c r="H36" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" t="s">
-        <v>262</v>
+        <v>928</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B37" t="s">
-        <v>503</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>590</v>
-      </c>
       <c r="G37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H37" t="s">
-        <v>398</v>
+        <v>153</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="I37" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" t="s">
-        <v>379</v>
+        <v>370</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="G38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>904</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="G38" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="I38" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" t="s">
-        <v>277</v>
+        <v>218</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>800</v>
+        <v>698</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>841</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>398</v>
+        <v>153</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>326</v>
+        <v>274</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>835</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>628</v>
+        <v>700</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E40" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G40" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="14" t="s">
-        <v>401</v>
+      <c r="H40" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="I40" t="s">
-        <v>109</v>
-      </c>
-      <c r="J40" t="s">
-        <v>372</v>
+        <v>276</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C41" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="G41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="G41" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>399</v>
-      </c>
       <c r="I41" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" t="s">
-        <v>937</v>
+        <v>277</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>769</v>
+        <v>702</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="E42" t="s">
+        <v>704</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>872</v>
       </c>
       <c r="G42" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="14" t="s">
-        <v>399</v>
+      <c r="H42" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
-      </c>
-      <c r="J42" t="s">
-        <v>770</v>
+        <v>921</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>913</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>696</v>
+        <v>706</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G43" t="s">
         <v>153</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>398</v>
+      <c r="H43" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>273</v>
+        <v>705</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>616</v>
+        <v>709</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>844</v>
       </c>
       <c r="G44" t="s">
         <v>153</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>819</v>
+        <v>166</v>
       </c>
       <c r="I44" t="s">
-        <v>615</v>
-      </c>
-      <c r="J44" t="s">
-        <v>382</v>
+        <v>816</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>152</v>
+        <v>711</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>846</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>717</v>
+        <v>822</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>855</v>
       </c>
       <c r="G45" t="s">
         <v>153</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J45" t="s">
-        <v>929</v>
+      <c r="H45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" t="s">
+        <v>281</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C46" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>857</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="G46" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>819</v>
-      </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J46" t="s">
-        <v>925</v>
+        <v>282</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>762</v>
+        <v>715</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>846</v>
       </c>
       <c r="G47" t="s">
         <v>153</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>825</v>
+      <c r="H47" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I47" t="s">
-        <v>168</v>
-      </c>
-      <c r="J47" t="s">
-        <v>311</v>
+        <v>929</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>942</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="G48" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>407</v>
+      <c r="H48" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" t="s">
-        <v>272</v>
+        <v>374</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>632</v>
+        <v>597</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D49" t="s">
+        <v>819</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G49" t="s">
         <v>153</v>
       </c>
-      <c r="H49" t="s">
-        <v>400</v>
+      <c r="H49" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I49" t="s">
-        <v>633</v>
-      </c>
-      <c r="J49" t="s">
-        <v>362</v>
+        <v>380</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>708</v>
+        <v>388</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>853</v>
       </c>
       <c r="G50" t="s">
         <v>153</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>399</v>
+      <c r="H50" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-      <c r="J50" t="s">
-        <v>705</v>
+        <v>922</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>740</v>
+        <v>638</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G51" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>405</v>
+      <c r="H51" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I51" t="s">
-        <v>165</v>
-      </c>
-      <c r="J51" t="s">
-        <v>294</v>
+        <v>283</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>853</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>673</v>
+        <v>719</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D52" t="s">
+        <v>819</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>838</v>
       </c>
       <c r="G52" t="s">
         <v>153</v>
       </c>
-      <c r="H52" t="s">
-        <v>405</v>
+      <c r="H52" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="I52" t="s">
-        <v>154</v>
-      </c>
-      <c r="J52" t="s">
-        <v>923</v>
+        <v>284</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D53" t="s">
+        <v>819</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" t="s">
-        <v>406</v>
-      </c>
       <c r="I53" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>258</v>
+        <v>926</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="G54" t="s">
-        <v>153</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="I54" t="s">
-        <v>95</v>
-      </c>
-      <c r="J54" t="s">
-        <v>364</v>
+        <v>213</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D55" t="s">
+        <v>819</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>877</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" t="s">
-        <v>399</v>
-      </c>
       <c r="I55" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>263</v>
+        <v>925</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="G56" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>856</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="G56" t="s">
-        <v>153</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>822</v>
-      </c>
       <c r="I56" t="s">
-        <v>100</v>
-      </c>
-      <c r="J56" t="s">
-        <v>282</v>
+        <v>369</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>283</v>
+      <c r="I57" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="G58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="G58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>819</v>
-      </c>
       <c r="I58" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" t="s">
-        <v>926</v>
+        <v>285</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>720</v>
+        <v>391</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H59" s="15" t="s">
-        <v>819</v>
+      <c r="H59" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>284</v>
+        <v>817</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>152</v>
+        <v>657</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>809</v>
+        <v>409</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>909</v>
       </c>
       <c r="G60" t="s">
         <v>153</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>398</v>
+        <v>152</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
-      </c>
-      <c r="J60" t="s">
-        <v>815</v>
+        <v>378</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>879</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>774</v>
+        <v>649</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="D61" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>863</v>
       </c>
       <c r="G61" t="s">
         <v>155</v>
       </c>
-      <c r="H61" t="s">
-        <v>399</v>
+      <c r="H61" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" t="s">
-        <v>316</v>
+        <v>404</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>834</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>697</v>
+        <v>725</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D62" t="s">
+        <v>406</v>
+      </c>
+      <c r="E62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>864</v>
       </c>
       <c r="G62" t="s">
         <v>155</v>
       </c>
-      <c r="H62" t="s">
-        <v>818</v>
+      <c r="H62" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I62" t="s">
-        <v>160</v>
-      </c>
-      <c r="J62" t="s">
-        <v>928</v>
+        <v>529</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>152</v>
+        <v>887</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>694</v>
+        <v>823</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G63" t="s">
         <v>153</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I63" t="s">
-        <v>163</v>
-      </c>
-      <c r="J63" t="s">
-        <v>920</v>
+        <v>289</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>724</v>
+        <v>727</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="E64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>868</v>
       </c>
       <c r="G64" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" t="s">
+        <v>291</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="I64" t="s">
-        <v>81</v>
-      </c>
-      <c r="J64" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>322</v>
+      <c r="H65" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>842</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>652</v>
+        <v>619</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>898</v>
       </c>
       <c r="G66" t="s">
-        <v>153</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>405</v>
+        <v>155</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="I66" t="s">
-        <v>154</v>
-      </c>
-      <c r="J66" t="s">
-        <v>308</v>
+        <v>243</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>622</v>
+        <v>581</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>876</v>
       </c>
       <c r="G67" t="s">
         <v>155</v>
       </c>
-      <c r="H67" s="16" t="s">
-        <v>819</v>
+      <c r="H67" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="I67" t="s">
-        <v>69</v>
-      </c>
-      <c r="J67" t="s">
-        <v>213</v>
+        <v>241</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>797</v>
+        <v>729</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>878</v>
       </c>
       <c r="G68" t="s">
         <v>155</v>
       </c>
-      <c r="H68" s="15" t="s">
-        <v>401</v>
+      <c r="H68" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I68" t="s">
-        <v>109</v>
-      </c>
-      <c r="J68" t="s">
-        <v>325</v>
+        <v>408</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>890</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>614</v>
+        <v>731</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>873</v>
       </c>
       <c r="G69" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>400</v>
+        <v>155</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>943</v>
       </c>
       <c r="I69" t="s">
-        <v>172</v>
-      </c>
-      <c r="J69" t="s">
-        <v>927</v>
+        <v>471</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D70" t="s">
+        <v>401</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" t="s">
-        <v>399</v>
-      </c>
       <c r="I70" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>265</v>
+        <v>292</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D71" t="s">
+        <v>399</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H71" t="s">
-        <v>401</v>
-      </c>
       <c r="I71" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15" t="s">
-        <v>152</v>
+        <v>738</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>862</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>723</v>
+        <v>405</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>153</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>399</v>
+        <v>152</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J72" s="15" t="s">
-        <v>285</v>
+        <v>294</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G73" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>859</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="G73" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>399</v>
-      </c>
       <c r="I73" t="s">
-        <v>81</v>
-      </c>
-      <c r="J73" t="s">
-        <v>813</v>
+        <v>931</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>883</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>587</v>
+        <v>159</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E74" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G74" t="s">
         <v>153</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>409</v>
+      <c r="H74" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="I74" t="s">
-        <v>137</v>
-      </c>
-      <c r="J74" t="s">
-        <v>402</v>
+        <v>295</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>867</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>772</v>
+        <v>583</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>881</v>
       </c>
       <c r="G75" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>407</v>
+        <v>155</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="I75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J75" t="s">
-        <v>315</v>
+        <v>220</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E76" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="G76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H76" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="G76" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>399</v>
-      </c>
       <c r="I76" t="s">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s">
-        <v>266</v>
+        <v>297</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>878</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>730</v>
+        <v>884</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G77" t="s">
         <v>155</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>409</v>
+      <c r="H77" s="15" t="s">
+        <v>812</v>
       </c>
       <c r="I77" t="s">
-        <v>137</v>
-      </c>
-      <c r="J77" t="s">
-        <v>408</v>
+        <v>932</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>674</v>
+        <v>744</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E78" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>869</v>
       </c>
       <c r="G78" t="s">
-        <v>153</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>405</v>
+        <v>155</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="I78" t="s">
-        <v>154</v>
-      </c>
-      <c r="J78" t="s">
-        <v>675</v>
+        <v>299</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="G79" t="s">
         <v>153</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>405</v>
+      <c r="H79" s="15" t="s">
+        <v>812</v>
       </c>
       <c r="I79" t="s">
-        <v>165</v>
-      </c>
-      <c r="J79" t="s">
-        <v>931</v>
+        <v>300</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>617</v>
+        <v>749</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>874</v>
       </c>
       <c r="G80" t="s">
         <v>155</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>819</v>
+        <v>943</v>
       </c>
       <c r="I80" t="s">
-        <v>69</v>
-      </c>
-      <c r="J80" t="s">
-        <v>369</v>
+        <v>301</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>647</v>
+        <v>751</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>849</v>
       </c>
       <c r="G81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="I81" t="s">
-        <v>69</v>
-      </c>
-      <c r="J81" t="s">
-        <v>329</v>
+        <v>302</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>855</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>712</v>
+        <v>625</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D82" t="s">
+        <v>399</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>900</v>
       </c>
       <c r="G82" t="s">
         <v>153</v>
       </c>
-      <c r="H82" t="s">
-        <v>822</v>
+      <c r="H82" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="I82" t="s">
-        <v>98</v>
-      </c>
-      <c r="J82" t="s">
-        <v>281</v>
+        <v>237</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>861</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>679</v>
+        <v>753</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>561</v>
       </c>
       <c r="G83" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="I83" t="s">
-        <v>69</v>
-      </c>
-      <c r="J83" t="s">
-        <v>260</v>
+        <v>304</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>598</v>
+        <v>755</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>866</v>
       </c>
       <c r="G84" t="s">
         <v>153</v>
       </c>
-      <c r="H84" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J84" t="s">
-        <v>380</v>
+      <c r="H84" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I84" t="s">
+        <v>937</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>593</v>
+        <v>644</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>904</v>
       </c>
       <c r="G85" t="s">
-        <v>153</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>820</v>
+        <v>155</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>812</v>
       </c>
       <c r="I85" t="s">
-        <v>66</v>
-      </c>
-      <c r="J85" t="s">
-        <v>359</v>
+        <v>376</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>880</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>737</v>
+        <v>393</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E86" t="s">
+        <v>167</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>907</v>
       </c>
       <c r="G86" t="s">
         <v>153</v>
       </c>
-      <c r="H86" s="15" t="s">
-        <v>399</v>
+      <c r="H86" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I86" t="s">
-        <v>81</v>
-      </c>
-      <c r="J86" t="s">
-        <v>293</v>
+        <v>305</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>152</v>
+        <v>757</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>802</v>
+        <v>399</v>
+      </c>
+      <c r="E87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>845</v>
       </c>
       <c r="G87" t="s">
         <v>153</v>
       </c>
-      <c r="H87" s="15" t="s">
-        <v>399</v>
+      <c r="H87" s="3" t="s">
+        <v>812</v>
       </c>
       <c r="I87" t="s">
-        <v>81</v>
-      </c>
-      <c r="J87" t="s">
-        <v>918</v>
+        <v>306</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>658</v>
+        <v>600</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E88" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G88" t="s">
         <v>153</v>
       </c>
-      <c r="H88" s="14" t="s">
-        <v>409</v>
+      <c r="H88" s="3" t="s">
+        <v>812</v>
       </c>
       <c r="I88" t="s">
-        <v>139</v>
-      </c>
-      <c r="J88" t="s">
-        <v>378</v>
+        <v>360</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D89" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>793</v>
       </c>
       <c r="G89" t="s">
         <v>153</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="I89" t="s">
-        <v>172</v>
-      </c>
-      <c r="J89" t="s">
-        <v>930</v>
+        <v>367</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>718</v>
+        <v>543</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E90" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>842</v>
       </c>
       <c r="G90" t="s">
         <v>153</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>819</v>
+        <v>152</v>
       </c>
       <c r="I90" t="s">
-        <v>69</v>
-      </c>
-      <c r="J90" t="s">
-        <v>922</v>
+        <v>308</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D91" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="E91" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>776</v>
       </c>
       <c r="G91" t="s">
         <v>153</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I91" t="s">
-        <v>111</v>
-      </c>
-      <c r="J91" t="s">
-        <v>317</v>
+        <v>310</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>635</v>
+        <v>653</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>858</v>
       </c>
       <c r="G92" t="s">
         <v>153</v>
       </c>
-      <c r="H92" s="15" t="s">
-        <v>406</v>
+      <c r="H92" s="17" t="s">
+        <v>814</v>
       </c>
       <c r="I92" t="s">
-        <v>75</v>
-      </c>
-      <c r="J92" t="s">
-        <v>917</v>
+        <v>936</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>849</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>752</v>
+        <v>761</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="E93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G93" t="s">
-        <v>155</v>
-      </c>
-      <c r="H93" s="14" t="s">
-        <v>399</v>
+        <v>153</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I93" t="s">
-        <v>81</v>
-      </c>
-      <c r="J93" t="s">
-        <v>302</v>
+        <v>311</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>754</v>
+        <v>565</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="E94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>889</v>
       </c>
       <c r="G94" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I94" t="s">
-        <v>81</v>
-      </c>
-      <c r="J94" t="s">
-        <v>304</v>
+        <v>916</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="D95" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="E95" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" s="17" t="s">
         <v>902</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>630</v>
       </c>
       <c r="G95" t="s">
         <v>153</v>
       </c>
-      <c r="H95" s="15" t="s">
-        <v>825</v>
+      <c r="H95" s="17" t="s">
+        <v>812</v>
       </c>
       <c r="I95" t="s">
-        <v>168</v>
-      </c>
-      <c r="J95" t="s">
         <v>373</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D96" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>605</v>
       </c>
       <c r="G96" t="s">
         <v>153</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="I96" t="s">
-        <v>55</v>
-      </c>
-      <c r="J96" t="s">
         <v>224</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>607</v>
+        <v>763</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E97" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>850</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H97" s="16" t="s">
-        <v>820</v>
+      <c r="H97" s="17" t="s">
+        <v>812</v>
       </c>
       <c r="I97" t="s">
-        <v>608</v>
-      </c>
-      <c r="J97" t="s">
-        <v>381</v>
+        <v>312</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>812</v>
+        <v>606</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>845</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>758</v>
+        <v>820</v>
+      </c>
+      <c r="E98" t="s">
+        <v>608</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G98" t="s">
         <v>153</v>
       </c>
-      <c r="H98" s="15" t="s">
-        <v>399</v>
+      <c r="H98" s="17" t="s">
+        <v>812</v>
       </c>
       <c r="I98" t="s">
-        <v>81</v>
-      </c>
-      <c r="J98" t="s">
-        <v>306</v>
+        <v>381</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C99" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E99" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="G99" t="s">
+        <v>155</v>
+      </c>
+      <c r="H99" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="D99" s="15" t="s">
-        <v>850</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="G99" t="s">
-        <v>153</v>
-      </c>
-      <c r="H99" s="14" t="s">
-        <v>399</v>
-      </c>
       <c r="I99" t="s">
-        <v>81</v>
-      </c>
-      <c r="J99" t="s">
-        <v>312</v>
+        <v>534</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>748</v>
+        <v>766</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="E100" t="s">
+        <v>313</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>842</v>
       </c>
       <c r="G100" t="s">
         <v>153</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="I100" t="s">
-        <v>79</v>
-      </c>
-      <c r="J100" t="s">
-        <v>300</v>
+        <v>314</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="D101" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>601</v>
       </c>
       <c r="G101" t="s">
         <v>153</v>
       </c>
-      <c r="H101" s="15" t="s">
-        <v>406</v>
+      <c r="H101" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I101" t="s">
-        <v>75</v>
-      </c>
-      <c r="J101" t="s">
-        <v>360</v>
+        <v>770</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>842</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>767</v>
+        <v>771</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E102" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>867</v>
       </c>
       <c r="G102" t="s">
         <v>153</v>
       </c>
-      <c r="H102" s="14" t="s">
-        <v>824</v>
+      <c r="H102" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I102" t="s">
-        <v>313</v>
-      </c>
-      <c r="J102" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>904</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>645</v>
+        <v>773</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E103" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>879</v>
       </c>
       <c r="G103" t="s">
         <v>155</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>407</v>
+      <c r="H103" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I103" t="s">
-        <v>95</v>
-      </c>
-      <c r="J103" t="s">
-        <v>376</v>
+        <v>316</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>611</v>
+        <v>572</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="E104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>882</v>
       </c>
       <c r="G104" t="s">
         <v>153</v>
       </c>
-      <c r="H104" s="14" t="s">
-        <v>400</v>
+      <c r="H104" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="I104" t="s">
-        <v>172</v>
-      </c>
-      <c r="J104" t="s">
-        <v>363</v>
+        <v>377</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>699</v>
+        <v>775</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G105" t="s">
         <v>153</v>
       </c>
-      <c r="H105" s="14" t="s">
-        <v>827</v>
+      <c r="H105" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I105" t="s">
-        <v>79</v>
-      </c>
-      <c r="J105" t="s">
-        <v>274</v>
+        <v>317</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>166</v>
+        <v>777</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>745</v>
+        <v>398</v>
+      </c>
+      <c r="E106" t="s">
+        <v>829</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>847</v>
       </c>
       <c r="G106" t="s">
         <v>155</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>406</v>
+        <v>152</v>
       </c>
       <c r="I106" t="s">
-        <v>298</v>
-      </c>
-      <c r="J106" t="s">
-        <v>299</v>
+        <v>537</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>166</v>
+        <v>394</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>844</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>710</v>
+        <v>401</v>
+      </c>
+      <c r="E107" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>840</v>
       </c>
       <c r="G107" t="s">
         <v>153</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>822</v>
+        <v>161</v>
       </c>
       <c r="I107" t="s">
-        <v>98</v>
-      </c>
-      <c r="J107" t="s">
-        <v>816</v>
+        <v>811</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D108" t="s">
+        <v>780</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E108" t="s">
+        <v>109</v>
+      </c>
+      <c r="F108" t="s">
         <v>895</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>781</v>
       </c>
       <c r="G108" t="s">
         <v>153</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="I108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J108" t="s">
         <v>919</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>779</v>
+        <v>562</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>883</v>
       </c>
       <c r="G109" t="s">
         <v>153</v>
       </c>
-      <c r="H109" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J109" t="s">
-        <v>811</v>
+      <c r="H109" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I109" t="s">
+        <v>402</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>790</v>
+        <v>782</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>838</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H110" s="16" t="s">
-        <v>822</v>
+        <v>153</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>943</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J110" s="15" t="s">
-        <v>934</v>
+        <v>319</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>899</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>624</v>
+        <v>784</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>892</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>409</v>
+      <c r="H111" s="15" t="s">
+        <v>943</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J111" s="15" t="s">
-        <v>375</v>
+        <v>320</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>871</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>804</v>
+        <v>395</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E112" t="s">
+        <v>142</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>885</v>
       </c>
       <c r="G112" t="s">
         <v>153</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>407</v>
+      <c r="H112" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I112" t="s">
-        <v>95</v>
-      </c>
-      <c r="J112" t="s">
-        <v>327</v>
+        <v>321</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="G113" t="s">
+        <v>155</v>
+      </c>
+      <c r="H113" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="I113" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H113" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J113" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>935</v>
+      <c r="H114" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>596</v>
+        <v>786</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="E115" t="s">
+        <v>142</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>837</v>
       </c>
       <c r="G115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>819</v>
+        <v>943</v>
       </c>
       <c r="I115" t="s">
-        <v>69</v>
-      </c>
-      <c r="J115" t="s">
-        <v>374</v>
+        <v>323</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" s="15"/>
+        <v>791</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>943</v>
+      </c>
       <c r="D116" s="15" t="s">
-        <v>892</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>785</v>
+        <v>406</v>
+      </c>
+      <c r="E116" t="s">
+        <v>75</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>870</v>
       </c>
       <c r="G116" t="s">
         <v>153</v>
       </c>
-      <c r="H116" s="15" t="s">
-        <v>822</v>
+      <c r="H116" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="I116" t="s">
-        <v>142</v>
-      </c>
-      <c r="J116" t="s">
-        <v>320</v>
+        <v>324</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15" t="s">
-        <v>874</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>750</v>
+        <v>396</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="G117" t="s">
-        <v>155</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>409</v>
+        <v>153</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I117" t="s">
-        <v>137</v>
-      </c>
-      <c r="J117" t="s">
-        <v>301</v>
+        <v>930</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>594</v>
+        <v>573</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>890</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H118" s="15" t="s">
-        <v>818</v>
+      <c r="H118" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>370</v>
+        <v>927</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E119" t="s">
+        <v>172</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>701</v>
       </c>
       <c r="G119" t="s">
         <v>153</v>
       </c>
-      <c r="H119" s="15" t="s">
-        <v>409</v>
+      <c r="H119" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="I119" t="s">
-        <v>275</v>
-      </c>
-      <c r="J119" t="s">
-        <v>276</v>
+        <v>363</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C120" s="15"/>
-      <c r="D120" t="s">
-        <v>872</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>703</v>
+        <v>794</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="E120" t="s">
+        <v>69</v>
+      </c>
+      <c r="F120" t="s">
+        <v>851</v>
       </c>
       <c r="G120" t="s">
-        <v>153</v>
-      </c>
-      <c r="H120" s="15" t="s">
-        <v>825</v>
+        <v>155</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I120" t="s">
-        <v>704</v>
-      </c>
-      <c r="J120" t="s">
-        <v>921</v>
+        <v>539</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" s="15"/>
-      <c r="D121" t="s">
-        <v>836</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>806</v>
+        <v>796</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E121" t="s">
+        <v>109</v>
+      </c>
+      <c r="F121" t="s">
+        <v>68</v>
       </c>
       <c r="G121" t="s">
-        <v>153</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>407</v>
+        <v>155</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I121" t="s">
-        <v>95</v>
-      </c>
-      <c r="J121" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="14"/>
-      <c r="D122" t="s">
-        <v>896</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>613</v>
+        <v>627</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E122" t="s">
+        <v>109</v>
+      </c>
+      <c r="F122" t="s">
+        <v>835</v>
       </c>
       <c r="G122" t="s">
         <v>153</v>
       </c>
-      <c r="H122" s="15" t="s">
-        <v>401</v>
+      <c r="H122" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I122" t="s">
-        <v>163</v>
-      </c>
-      <c r="J122" t="s">
-        <v>270</v>
+        <v>372</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C123" s="14"/>
+        <v>798</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>943</v>
+      </c>
       <c r="D123" s="15" t="s">
-        <v>905</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>641</v>
+        <v>398</v>
+      </c>
+      <c r="E123" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>848</v>
       </c>
       <c r="G123" t="s">
-        <v>153</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>399</v>
+        <v>155</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I123" t="s">
-        <v>81</v>
-      </c>
-      <c r="J123" t="s">
-        <v>368</v>
+        <v>326</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>567</v>
+        <v>801</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D124" t="s">
+        <v>399</v>
+      </c>
+      <c r="E124" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>894</v>
       </c>
       <c r="G124" t="s">
         <v>153</v>
       </c>
-      <c r="H124" t="s">
-        <v>399</v>
+      <c r="H124" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I124" t="s">
-        <v>81</v>
-      </c>
-      <c r="J124" t="s">
-        <v>229</v>
+        <v>918</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>783</v>
+        <v>803</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" t="s">
+        <v>95</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>871</v>
       </c>
       <c r="G125" t="s">
         <v>153</v>
       </c>
-      <c r="H125" s="14" t="s">
-        <v>409</v>
+      <c r="H125" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="I125" t="s">
-        <v>139</v>
-      </c>
-      <c r="J125" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>626</v>
+        <v>805</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E126" t="s">
+        <v>95</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>836</v>
       </c>
       <c r="G126" t="s">
         <v>153</v>
       </c>
-      <c r="H126" s="15" t="s">
-        <v>399</v>
+      <c r="H126" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="I126" t="s">
-        <v>81</v>
-      </c>
-      <c r="J126" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="3"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J157">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="A1:A157"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F124" r:id="rId1" xr:uid="{CB3A6996-1752-4B4B-BF52-4CF096C8F421}"/>
-    <hyperlink ref="F28" r:id="rId2" xr:uid="{C3315F15-7229-4522-9C29-4C7D65175761}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{408A87EC-4D5B-47C4-8890-893B7BB8C172}"/>
-    <hyperlink ref="F48" r:id="rId4" xr:uid="{AF7C8E92-6DFC-4D93-92DB-909A34DC8A44}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{E1EB78E6-977D-4E41-BDF1-51E3DA90D748}"/>
-    <hyperlink ref="F65" r:id="rId6" xr:uid="{F6699800-B8B3-46C4-B232-34A1F3406AAB}"/>
-    <hyperlink ref="F114" r:id="rId7" xr:uid="{10D9C210-D9D0-496F-A482-2E1DD5E8587D}"/>
-    <hyperlink ref="F24" r:id="rId8" xr:uid="{37C780F1-E4BC-4201-AFBD-B82A941201AC}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{2316D563-C910-462C-9F0B-E93DAD89F3B6}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{8FAF13E6-CBF1-4B43-8B88-CE4BE34892FE}"/>
-    <hyperlink ref="F32" r:id="rId11" xr:uid="{251F6BA8-C049-4688-935A-609FC5E9AE6C}"/>
-    <hyperlink ref="F74" r:id="rId12" xr:uid="{337713F0-E159-470F-A501-D47E85CB4D04}"/>
-    <hyperlink ref="F19" r:id="rId13" xr:uid="{DBA20689-F0E0-4F57-A63E-420ED4360D27}"/>
-    <hyperlink ref="F37" r:id="rId14" xr:uid="{CD86EE10-C708-40C6-921B-0F72AB2D241A}"/>
-    <hyperlink ref="F2" r:id="rId15" xr:uid="{E3F0EA78-53E7-43C3-8204-72AED4AAE5F1}"/>
-    <hyperlink ref="F85" r:id="rId16" xr:uid="{9C1F06EC-2FAA-401F-A2A2-D20B1BFC4B8B}"/>
-    <hyperlink ref="F118" r:id="rId17" xr:uid="{1AB9CD45-4B49-4140-85AF-DB59B1D61C9C}"/>
-    <hyperlink ref="F115" r:id="rId18" xr:uid="{A219AFCA-D415-4934-87D4-AD441760CFBB}"/>
-    <hyperlink ref="F84" r:id="rId19" xr:uid="{35B7ABFF-9F51-4B70-A09E-5BA18996AB29}"/>
-    <hyperlink ref="F30" r:id="rId20" xr:uid="{220A39F3-ECFB-4E19-B2AA-B016263B7A76}"/>
-    <hyperlink ref="F101" r:id="rId21" xr:uid="{B3C31BAE-DCCE-47C9-9292-1A347F3DF101}"/>
-    <hyperlink ref="F31" r:id="rId22" xr:uid="{7A5CCE6F-2A3C-4DA5-A5FD-50535E1F0B06}"/>
-    <hyperlink ref="F96" r:id="rId23" xr:uid="{5A677DB8-E406-41A7-9567-68F73B1DF30F}"/>
-    <hyperlink ref="F97" r:id="rId24" xr:uid="{AE2F3419-3665-4C37-84B6-BC6DD6EE2CC0}"/>
-    <hyperlink ref="F11" r:id="rId25" xr:uid="{0EC31E2D-72FA-4F39-8292-71E6D4B08190}"/>
-    <hyperlink ref="F104" r:id="rId26" xr:uid="{2F6235A6-E678-4142-92D4-567C8EED0863}"/>
-    <hyperlink ref="F122" r:id="rId27" xr:uid="{C742C418-1EC0-436D-BFBA-80A4971E137F}"/>
-    <hyperlink ref="F69" r:id="rId28" xr:uid="{1D8AF8EC-7B99-4C66-BA50-2DEE0A1A5290}"/>
-    <hyperlink ref="F44" r:id="rId29" xr:uid="{D0EE2B63-4491-4743-8605-D3466F67A54F}"/>
-    <hyperlink ref="F80" r:id="rId30" xr:uid="{DB242EF9-5E55-4609-B77D-2ABB814FEF14}"/>
-    <hyperlink ref="F18" r:id="rId31" xr:uid="{3775403E-80A4-4C36-A376-59D2DB370008}"/>
-    <hyperlink ref="F67" r:id="rId32" xr:uid="{E17427AB-6FEB-4AD0-90D2-9E0D86D840C4}"/>
-    <hyperlink ref="F111" r:id="rId33" xr:uid="{298E7F4B-5716-4884-8473-FA944C9A19FA}"/>
-    <hyperlink ref="F126" r:id="rId34" xr:uid="{E10DDE18-9670-48D9-B7A8-956308C5AD61}"/>
-    <hyperlink ref="F40" r:id="rId35" xr:uid="{25B79AB1-DD2C-4B7A-A77C-34D5404D6367}"/>
-    <hyperlink ref="F95" r:id="rId36" xr:uid="{A9B55311-651A-4818-B15A-46C49B4C0C06}"/>
-    <hyperlink ref="F49" r:id="rId37" xr:uid="{82D7060F-7AC9-4F04-9D94-DF024BAA0815}"/>
-    <hyperlink ref="F54" r:id="rId38" xr:uid="{75C07CC7-515C-4B9E-B3DD-DC76092C2A8D}"/>
-    <hyperlink ref="F57" r:id="rId39" xr:uid="{23C6D870-8A7F-4885-AA23-88ECFAE2E54A}"/>
-    <hyperlink ref="F123" r:id="rId40" xr:uid="{05B23FA2-76DC-442C-A6D5-70F8E3042F82}"/>
-    <hyperlink ref="F38" r:id="rId41" xr:uid="{69DF2C18-144D-481A-A6AE-6BADDCD0D000}"/>
-    <hyperlink ref="F103" r:id="rId42" xr:uid="{3FA3BF12-D7AD-45F2-8DE2-14C0E8AD46F7}"/>
-    <hyperlink ref="F81" r:id="rId43" xr:uid="{83883CA6-DA20-4371-A865-037B9FC04966}"/>
-    <hyperlink ref="F25" r:id="rId44" xr:uid="{5E3DA13F-FF9A-434C-A260-1AA1D737E52B}"/>
-    <hyperlink ref="F20" r:id="rId45" xr:uid="{E6EB8D90-3CFF-45F6-8278-5298DA481CA7}"/>
-    <hyperlink ref="F66" r:id="rId46" xr:uid="{FE7AE6CA-FDF5-4838-B8A0-B1BF3C0DD15B}"/>
-    <hyperlink ref="F35" r:id="rId47" xr:uid="{44401D54-4261-48E2-9C64-CC2788BED8DE}"/>
-    <hyperlink ref="F58" r:id="rId48" xr:uid="{345C053A-D1E3-458E-881C-4ECC98F4AF74}"/>
-    <hyperlink ref="F88" r:id="rId49" xr:uid="{75EC98E3-BDB8-4B7E-A375-8DE65CB6B877}"/>
-    <hyperlink ref="F4" r:id="rId50" xr:uid="{C010F130-D7E2-4C3B-9B66-8B446A5C6CD5}"/>
-    <hyperlink ref="F8" r:id="rId51" xr:uid="{07313D3E-00DF-4D96-A0C8-908839922A4C}"/>
-    <hyperlink ref="F73" r:id="rId52" xr:uid="{0E0E6B07-CF47-4B7C-8C90-CBAB4DF98F93}"/>
-    <hyperlink ref="F6" r:id="rId53" xr:uid="{A2F1ABEC-E9A7-45DE-BDF5-22099A8731EB}"/>
-    <hyperlink ref="F53" r:id="rId54" xr:uid="{6295A2FE-493B-45C2-95A5-12E9B9BD82AD}"/>
-    <hyperlink ref="F16" r:id="rId55" xr:uid="{E5989621-5A81-42BE-A996-FB68EB675CA7}"/>
-    <hyperlink ref="F52" r:id="rId56" xr:uid="{7CB6A475-983E-4032-967A-5592AA2371A0}"/>
-    <hyperlink ref="F78" r:id="rId57" xr:uid="{E6547AC0-8457-487C-92D5-2066869AAE24}"/>
-    <hyperlink ref="F7" r:id="rId58" xr:uid="{DC84231F-3763-4ED7-B7AD-B87389E1A95E}"/>
-    <hyperlink ref="F83" r:id="rId59" xr:uid="{133269A6-F6A5-44D7-8010-8D747BBA3FE9}"/>
-    <hyperlink ref="F36" r:id="rId60" xr:uid="{23B388E6-98A8-4C33-9586-2DF9FD467208}"/>
-    <hyperlink ref="F55" r:id="rId61" xr:uid="{10C12B9D-973D-4F0A-9899-C52602A67020}"/>
-    <hyperlink ref="F34" r:id="rId62" xr:uid="{F5AFED08-8615-4CA7-881A-CF21C51CB1A3}"/>
-    <hyperlink ref="F70" r:id="rId63" xr:uid="{B79F0FED-747F-42D1-B7D6-8081E4DBCEE7}"/>
-    <hyperlink ref="F76" r:id="rId64" xr:uid="{9684DB68-AE98-4A63-8DF1-049CEA68B0D0}"/>
-    <hyperlink ref="F92" r:id="rId65" xr:uid="{D3E6CB96-FAE5-4F47-840B-BA3663255070}"/>
-    <hyperlink ref="F33" r:id="rId66" xr:uid="{0FB97D78-3DAF-4AD2-8624-89F0385DE904}"/>
-    <hyperlink ref="F17" r:id="rId67" xr:uid="{DD6AC835-261C-4286-9CB5-3393AEB7ED5C}"/>
-    <hyperlink ref="F63" r:id="rId68" xr:uid="{0267A24F-16D5-4466-93E8-35C0962DB5C2}"/>
-    <hyperlink ref="F43" r:id="rId69" xr:uid="{E0B39B8C-76F1-40EF-8F52-74ACE2BAF8ED}"/>
-    <hyperlink ref="F62" r:id="rId70" xr:uid="{51DBB961-CC9E-427A-8A76-3E35C2146B24}"/>
-    <hyperlink ref="F105" r:id="rId71" xr:uid="{EFE321C7-650C-420A-9D99-AB589FDC9430}"/>
-    <hyperlink ref="F119" r:id="rId72" xr:uid="{A5C34641-7171-4DC8-AD87-EBDE27D4540A}"/>
-    <hyperlink ref="F120" r:id="rId73" xr:uid="{1397A222-DBA3-4660-87EF-91A8D133CDDA}"/>
-    <hyperlink ref="F50" r:id="rId74" xr:uid="{8CED3EEE-06D0-499B-9AEB-832D4EF7AC69}"/>
-    <hyperlink ref="F107" r:id="rId75" xr:uid="{0AF3C45F-D345-4341-82A6-07FAE74E2B7E}"/>
-    <hyperlink ref="F82" r:id="rId76" xr:uid="{8B7269F4-6DA8-4BA7-9970-4E3D452CADB7}"/>
-    <hyperlink ref="F56" r:id="rId77" xr:uid="{654ABEBE-9D90-418A-803D-20148CEDE015}"/>
-    <hyperlink ref="F45" r:id="rId78" xr:uid="{BE127050-E27F-40DC-864F-D946413B3BCE}"/>
-    <hyperlink ref="F90" r:id="rId79" xr:uid="{596A30E9-E0AC-499D-BC0E-144548936E18}"/>
-    <hyperlink ref="F59" r:id="rId80" xr:uid="{8727A52F-5C9B-457C-B7D6-0B71753E40FD}"/>
-    <hyperlink ref="F46" r:id="rId81" xr:uid="{BD78E641-46EB-45EB-BC80-9BC6E586B6AF}"/>
-    <hyperlink ref="F72" r:id="rId82" xr:uid="{4A75C187-BDFC-4D52-94D3-8EA510C61134}"/>
-    <hyperlink ref="F64" r:id="rId83" xr:uid="{E8A13FB3-92B5-4676-A2A0-E0747E8288D0}"/>
-    <hyperlink ref="F3" r:id="rId84" xr:uid="{E7DFB939-0CAB-4474-A2A6-E514B950451D}"/>
-    <hyperlink ref="F21" r:id="rId85" xr:uid="{74CC2D50-2A09-4F77-B41C-C16C1BC3F634}"/>
-    <hyperlink ref="F77" r:id="rId86" xr:uid="{51A7B990-998F-4516-8786-D1B5F0EDA510}"/>
-    <hyperlink ref="F22" r:id="rId87" xr:uid="{04EE7BDC-7CF6-402D-A0FA-96A34F909902}"/>
-    <hyperlink ref="F71" r:id="rId88" xr:uid="{6E55BAF3-5439-4190-B30A-855C9325C11E}"/>
-    <hyperlink ref="F86" r:id="rId89" xr:uid="{EE1F07B9-A9CB-4E35-A326-43C8D86D9AEC}"/>
-    <hyperlink ref="F51" r:id="rId90" xr:uid="{8C9A5D85-457C-4F22-9E22-0869B8E6C4CD}"/>
-    <hyperlink ref="F79" r:id="rId91" xr:uid="{B055B242-3DA5-4A37-880F-BC7379A917B6}"/>
-    <hyperlink ref="F10" r:id="rId92" xr:uid="{C4E9B5F6-D5BD-4163-948B-7FC5A2C37BC1}"/>
-    <hyperlink ref="F106" r:id="rId93" xr:uid="{08116317-E777-457D-AB74-1AB6D584473F}"/>
-    <hyperlink ref="F100" r:id="rId94" xr:uid="{E8F45DDA-6599-4697-B5AD-716016C95AD5}"/>
-    <hyperlink ref="F117" r:id="rId95" xr:uid="{F783325F-5256-493F-B4A8-BB831A860071}"/>
-    <hyperlink ref="F93" r:id="rId96" xr:uid="{76F56655-E80A-4092-805B-8D90D8CF6F3B}"/>
-    <hyperlink ref="F94" r:id="rId97" xr:uid="{0D1B4FD4-98A4-4670-85D8-675D3F0259B3}"/>
-    <hyperlink ref="F41" r:id="rId98" xr:uid="{69899A06-6640-465E-BF3B-150B7EEA9608}"/>
-    <hyperlink ref="F98" r:id="rId99" xr:uid="{7823E989-7B32-4D49-83EE-C33272356C23}"/>
-    <hyperlink ref="F26" r:id="rId100" xr:uid="{5DB75548-AA84-4439-A072-2382A5CC566E}"/>
-    <hyperlink ref="F47" r:id="rId101" xr:uid="{BA62B73E-4357-4C74-9CEE-1406B4CA2DB2}"/>
-    <hyperlink ref="F99" r:id="rId102" xr:uid="{5E423E34-AA5B-4E10-98AA-4F3350C665E9}"/>
-    <hyperlink ref="F5" r:id="rId103" xr:uid="{434FF047-11B0-4325-AE65-1CFAD4EC9E83}"/>
-    <hyperlink ref="F102" r:id="rId104" xr:uid="{3408F764-619F-4EC9-9FFC-E9620375B761}"/>
-    <hyperlink ref="F42" r:id="rId105" xr:uid="{A3CC5C11-B937-49C8-B61D-35A3F01335D1}"/>
-    <hyperlink ref="F75" r:id="rId106" xr:uid="{936AFE53-95B5-4979-BCD3-EA5277B1F0BA}"/>
-    <hyperlink ref="F61" r:id="rId107" xr:uid="{8A3EDA8A-B8D4-4856-8DB0-73A3E90E6A45}"/>
-    <hyperlink ref="F91" r:id="rId108" xr:uid="{861E37EB-368A-4352-AF4A-0430720EAD42}"/>
-    <hyperlink ref="F23" r:id="rId109" xr:uid="{015E7A0C-4EB2-4D58-90EE-BA8E361C6395}"/>
-    <hyperlink ref="F109" r:id="rId110" xr:uid="{769EE38A-AFE3-413D-BA90-AC15022B365A}"/>
-    <hyperlink ref="F108" r:id="rId111" xr:uid="{99B3A603-A777-4CFB-84F9-CAFB2E33BC9E}"/>
-    <hyperlink ref="F125" r:id="rId112" xr:uid="{9F612A38-8BB6-4419-A1F4-4BDEB1AD0D58}"/>
-    <hyperlink ref="F116" r:id="rId113" xr:uid="{0AD0DFEB-A4BC-4919-BC1F-8CCD1673A86D}"/>
-    <hyperlink ref="F14" r:id="rId114" xr:uid="{F9203F6B-93D8-4036-8C4E-2EDFB6DB8CF9}"/>
-    <hyperlink ref="F110" r:id="rId115" xr:uid="{F7DE93ED-3A55-4F87-94A1-ADAEA0708858}"/>
-    <hyperlink ref="F113" r:id="rId116" xr:uid="{1C8B009D-3131-49BA-8614-A988CDE58F1B}"/>
-    <hyperlink ref="F89" r:id="rId117" xr:uid="{042D0151-8750-4928-A66E-9C8F535EEEFE}"/>
-    <hyperlink ref="F12" r:id="rId118" xr:uid="{A763F36B-E1CE-4547-AAC9-FB32189FBE56}"/>
-    <hyperlink ref="F68" r:id="rId119" xr:uid="{503279BD-9A76-444B-B93A-F7EA27D22673}"/>
-    <hyperlink ref="F39" r:id="rId120" xr:uid="{5282910D-C315-4E7E-BC5E-BAD5CBC5124E}"/>
-    <hyperlink ref="F87" r:id="rId121" xr:uid="{7E96DCD7-650E-47A0-94A1-75F8043413DE}"/>
-    <hyperlink ref="F112" r:id="rId122" xr:uid="{347FDA83-C109-4745-999B-49E582B18678}"/>
-    <hyperlink ref="F121" r:id="rId123" xr:uid="{C1D40A73-5960-499A-865F-2AE1E1D26427}"/>
-    <hyperlink ref="F60" r:id="rId124" xr:uid="{4E9E3918-E31B-4030-A4B7-E9105C0D877C}"/>
-    <hyperlink ref="F27" r:id="rId125" xr:uid="{D4F2FF10-D25F-4742-B4B2-90E29C6348F6}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CB3A6996-1752-4B4B-BF52-4CF096C8F421}"/>
+    <hyperlink ref="B94" r:id="rId2" xr:uid="{C3315F15-7229-4522-9C29-4C7D65175761}"/>
+    <hyperlink ref="B63" r:id="rId3" xr:uid="{408A87EC-4D5B-47C4-8890-893B7BB8C172}"/>
+    <hyperlink ref="B34" r:id="rId4" xr:uid="{AF7C8E92-6DFC-4D93-92DB-909A34DC8A44}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{E1EB78E6-977D-4E41-BDF1-51E3DA90D748}"/>
+    <hyperlink ref="B114" r:id="rId6" xr:uid="{F6699800-B8B3-46C4-B232-34A1F3406AAB}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{10D9C210-D9D0-496F-A482-2E1DD5E8587D}"/>
+    <hyperlink ref="B38" r:id="rId8" xr:uid="{37C780F1-E4BC-4201-AFBD-B82A941201AC}"/>
+    <hyperlink ref="B75" r:id="rId9" xr:uid="{2316D563-C910-462C-9F0B-E93DAD89F3B6}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{8FAF13E6-CBF1-4B43-8B88-CE4BE34892FE}"/>
+    <hyperlink ref="B104" r:id="rId11" xr:uid="{251F6BA8-C049-4688-935A-609FC5E9AE6C}"/>
+    <hyperlink ref="B109" r:id="rId12" xr:uid="{337713F0-E159-470F-A501-D47E85CB4D04}"/>
+    <hyperlink ref="B77" r:id="rId13" xr:uid="{DBA20689-F0E0-4F57-A63E-420ED4360D27}"/>
+    <hyperlink ref="B3" r:id="rId14" xr:uid="{CD86EE10-C708-40C6-921B-0F72AB2D241A}"/>
+    <hyperlink ref="B27" r:id="rId15" xr:uid="{E3F0EA78-53E7-43C3-8204-72AED4AAE5F1}"/>
+    <hyperlink ref="B28" r:id="rId16" xr:uid="{9C1F06EC-2FAA-401F-A2A2-D20B1BFC4B8B}"/>
+    <hyperlink ref="B37" r:id="rId17" xr:uid="{1AB9CD45-4B49-4140-85AF-DB59B1D61C9C}"/>
+    <hyperlink ref="B48" r:id="rId18" xr:uid="{A219AFCA-D415-4934-87D4-AD441760CFBB}"/>
+    <hyperlink ref="B49" r:id="rId19" xr:uid="{35B7ABFF-9F51-4B70-A09E-5BA18996AB29}"/>
+    <hyperlink ref="B74" r:id="rId20" xr:uid="{220A39F3-ECFB-4E19-B2AA-B016263B7A76}"/>
+    <hyperlink ref="B88" r:id="rId21" xr:uid="{B3C31BAE-DCCE-47C9-9292-1A347F3DF101}"/>
+    <hyperlink ref="B89" r:id="rId22" xr:uid="{7A5CCE6F-2A3C-4DA5-A5FD-50535E1F0B06}"/>
+    <hyperlink ref="B96" r:id="rId23" xr:uid="{5A677DB8-E406-41A7-9567-68F73B1DF30F}"/>
+    <hyperlink ref="B98" r:id="rId24" xr:uid="{AE2F3419-3665-4C37-84B6-BC6DD6EE2CC0}"/>
+    <hyperlink ref="B112" r:id="rId25" xr:uid="{0EC31E2D-72FA-4F39-8292-71E6D4B08190}"/>
+    <hyperlink ref="B119" r:id="rId26" xr:uid="{2F6235A6-E678-4142-92D4-567C8EED0863}"/>
+    <hyperlink ref="B33" r:id="rId27" xr:uid="{C742C418-1EC0-436D-BFBA-80A4971E137F}"/>
+    <hyperlink ref="B118" r:id="rId28" xr:uid="{1D8AF8EC-7B99-4C66-BA50-2DEE0A1A5290}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{D0EE2B63-4491-4743-8605-D3466F67A54F}"/>
+    <hyperlink ref="B56" r:id="rId30" xr:uid="{DB242EF9-5E55-4609-B77D-2ABB814FEF14}"/>
+    <hyperlink ref="B66" r:id="rId31" xr:uid="{3775403E-80A4-4C36-A376-59D2DB370008}"/>
+    <hyperlink ref="B54" r:id="rId32" xr:uid="{E17427AB-6FEB-4AD0-90D2-9E0D86D840C4}"/>
+    <hyperlink ref="B65" r:id="rId33" xr:uid="{298E7F4B-5716-4884-8473-FA944C9A19FA}"/>
+    <hyperlink ref="B82" r:id="rId34" xr:uid="{E10DDE18-9670-48D9-B7A8-956308C5AD61}"/>
+    <hyperlink ref="B122" r:id="rId35" xr:uid="{25B79AB1-DD2C-4B7A-A77C-34D5404D6367}"/>
+    <hyperlink ref="B95" r:id="rId36" xr:uid="{A9B55311-651A-4818-B15A-46C49B4C0C06}"/>
+    <hyperlink ref="B16" r:id="rId37" xr:uid="{82D7060F-7AC9-4F04-9D94-DF024BAA0815}"/>
+    <hyperlink ref="B25" r:id="rId38" xr:uid="{75C07CC7-515C-4B9E-B3DD-DC76092C2A8D}"/>
+    <hyperlink ref="B51" r:id="rId39" xr:uid="{23C6D870-8A7F-4885-AA23-88ECFAE2E54A}"/>
+    <hyperlink ref="B6" r:id="rId40" xr:uid="{05B23FA2-76DC-442C-A6D5-70F8E3042F82}"/>
+    <hyperlink ref="B41" r:id="rId41" xr:uid="{69DF2C18-144D-481A-A6AE-6BADDCD0D000}"/>
+    <hyperlink ref="B85" r:id="rId42" xr:uid="{3FA3BF12-D7AD-45F2-8DE2-14C0E8AD46F7}"/>
+    <hyperlink ref="B57" r:id="rId43" xr:uid="{83883CA6-DA20-4371-A865-037B9FC04966}"/>
+    <hyperlink ref="B86" r:id="rId44" xr:uid="{5E3DA13F-FF9A-434C-A260-1AA1D737E52B}"/>
+    <hyperlink ref="B61" r:id="rId45" xr:uid="{E6EB8D90-3CFF-45F6-8278-5298DA481CA7}"/>
+    <hyperlink ref="B90" r:id="rId46" xr:uid="{FE7AE6CA-FDF5-4838-B8A0-B1BF3C0DD15B}"/>
+    <hyperlink ref="B92" r:id="rId47" xr:uid="{44401D54-4261-48E2-9C64-CC2788BED8DE}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{345C053A-D1E3-458E-881C-4ECC98F4AF74}"/>
+    <hyperlink ref="B60" r:id="rId49" xr:uid="{75EC98E3-BDB8-4B7E-A375-8DE65CB6B877}"/>
+    <hyperlink ref="B4" r:id="rId50" xr:uid="{C010F130-D7E2-4C3B-9B66-8B446A5C6CD5}"/>
+    <hyperlink ref="B5" r:id="rId51" xr:uid="{07313D3E-00DF-4D96-A0C8-908839922A4C}"/>
+    <hyperlink ref="B7" r:id="rId52" xr:uid="{0E0E6B07-CF47-4B7C-8C90-CBAB4DF98F93}"/>
+    <hyperlink ref="B8" r:id="rId53" xr:uid="{A2F1ABEC-E9A7-45DE-BDF5-22099A8731EB}"/>
+    <hyperlink ref="B9" r:id="rId54" xr:uid="{6295A2FE-493B-45C2-95A5-12E9B9BD82AD}"/>
+    <hyperlink ref="B10" r:id="rId55" xr:uid="{E5989621-5A81-42BE-A996-FB68EB675CA7}"/>
+    <hyperlink ref="B11" r:id="rId56" xr:uid="{7CB6A475-983E-4032-967A-5592AA2371A0}"/>
+    <hyperlink ref="B12" r:id="rId57" xr:uid="{E6547AC0-8457-487C-92D5-2066869AAE24}"/>
+    <hyperlink ref="B14" r:id="rId58" xr:uid="{DC84231F-3763-4ED7-B7AD-B87389E1A95E}"/>
+    <hyperlink ref="B15" r:id="rId59" xr:uid="{133269A6-F6A5-44D7-8010-8D747BBA3FE9}"/>
+    <hyperlink ref="B19" r:id="rId60" xr:uid="{23B388E6-98A8-4C33-9586-2DF9FD467208}"/>
+    <hyperlink ref="B20" r:id="rId61" xr:uid="{10C12B9D-973D-4F0A-9899-C52602A67020}"/>
+    <hyperlink ref="B21" r:id="rId62" xr:uid="{F5AFED08-8615-4CA7-881A-CF21C51CB1A3}"/>
+    <hyperlink ref="B22" r:id="rId63" xr:uid="{B79F0FED-747F-42D1-B7D6-8081E4DBCEE7}"/>
+    <hyperlink ref="B23" r:id="rId64" xr:uid="{9684DB68-AE98-4A63-8DF1-049CEA68B0D0}"/>
+    <hyperlink ref="B26" r:id="rId65" xr:uid="{D3E6CB96-FAE5-4F47-840B-BA3663255070}"/>
+    <hyperlink ref="B30" r:id="rId66" xr:uid="{0FB97D78-3DAF-4AD2-8624-89F0385DE904}"/>
+    <hyperlink ref="B67" r:id="rId67" xr:uid="{DD6AC835-261C-4286-9CB5-3393AEB7ED5C}"/>
+    <hyperlink ref="B32" r:id="rId68" xr:uid="{0267A24F-16D5-4466-93E8-35C0962DB5C2}"/>
+    <hyperlink ref="B35" r:id="rId69" xr:uid="{E0B39B8C-76F1-40EF-8F52-74ACE2BAF8ED}"/>
+    <hyperlink ref="B36" r:id="rId70" xr:uid="{51DBB961-CC9E-427A-8A76-3E35C2146B24}"/>
+    <hyperlink ref="B39" r:id="rId71" xr:uid="{EFE321C7-650C-420A-9D99-AB589FDC9430}"/>
+    <hyperlink ref="B40" r:id="rId72" xr:uid="{A5C34641-7171-4DC8-AD87-EBDE27D4540A}"/>
+    <hyperlink ref="B42" r:id="rId73" xr:uid="{1397A222-DBA3-4660-87EF-91A8D133CDDA}"/>
+    <hyperlink ref="B43" r:id="rId74" xr:uid="{8CED3EEE-06D0-499B-9AEB-832D4EF7AC69}"/>
+    <hyperlink ref="B44" r:id="rId75" xr:uid="{0AF3C45F-D345-4341-82A6-07FAE74E2B7E}"/>
+    <hyperlink ref="B45" r:id="rId76" xr:uid="{8B7269F4-6DA8-4BA7-9970-4E3D452CADB7}"/>
+    <hyperlink ref="B46" r:id="rId77" xr:uid="{654ABEBE-9D90-418A-803D-20148CEDE015}"/>
+    <hyperlink ref="B47" r:id="rId78" xr:uid="{BE127050-E27F-40DC-864F-D946413B3BCE}"/>
+    <hyperlink ref="B50" r:id="rId79" xr:uid="{596A30E9-E0AC-499D-BC0E-144548936E18}"/>
+    <hyperlink ref="B52" r:id="rId80" xr:uid="{8727A52F-5C9B-457C-B7D6-0B71753E40FD}"/>
+    <hyperlink ref="B55" r:id="rId81" xr:uid="{BD78E641-46EB-45EB-BC80-9BC6E586B6AF}"/>
+    <hyperlink ref="B58" r:id="rId82" xr:uid="{4A75C187-BDFC-4D52-94D3-8EA510C61134}"/>
+    <hyperlink ref="B59" r:id="rId83" xr:uid="{E8A13FB3-92B5-4676-A2A0-E0747E8288D0}"/>
+    <hyperlink ref="B62" r:id="rId84" xr:uid="{E7DFB939-0CAB-4474-A2A6-E514B950451D}"/>
+    <hyperlink ref="B64" r:id="rId85" xr:uid="{74CC2D50-2A09-4F77-B41C-C16C1BC3F634}"/>
+    <hyperlink ref="B68" r:id="rId86" xr:uid="{51A7B990-998F-4516-8786-D1B5F0EDA510}"/>
+    <hyperlink ref="B69" r:id="rId87" xr:uid="{04EE7BDC-7CF6-402D-A0FA-96A34F909902}"/>
+    <hyperlink ref="B70" r:id="rId88" xr:uid="{6E55BAF3-5439-4190-B30A-855C9325C11E}"/>
+    <hyperlink ref="B71" r:id="rId89" xr:uid="{EE1F07B9-A9CB-4E35-A326-43C8D86D9AEC}"/>
+    <hyperlink ref="B72" r:id="rId90" xr:uid="{8C9A5D85-457C-4F22-9E22-0869B8E6C4CD}"/>
+    <hyperlink ref="B73" r:id="rId91" xr:uid="{B055B242-3DA5-4A37-880F-BC7379A917B6}"/>
+    <hyperlink ref="B76" r:id="rId92" xr:uid="{C4E9B5F6-D5BD-4163-948B-7FC5A2C37BC1}"/>
+    <hyperlink ref="B78" r:id="rId93" xr:uid="{08116317-E777-457D-AB74-1AB6D584473F}"/>
+    <hyperlink ref="B79" r:id="rId94" xr:uid="{E8F45DDA-6599-4697-B5AD-716016C95AD5}"/>
+    <hyperlink ref="B80" r:id="rId95" xr:uid="{F783325F-5256-493F-B4A8-BB831A860071}"/>
+    <hyperlink ref="B81" r:id="rId96" xr:uid="{76F56655-E80A-4092-805B-8D90D8CF6F3B}"/>
+    <hyperlink ref="B83" r:id="rId97" xr:uid="{0D1B4FD4-98A4-4670-85D8-675D3F0259B3}"/>
+    <hyperlink ref="B84" r:id="rId98" xr:uid="{69899A06-6640-465E-BF3B-150B7EEA9608}"/>
+    <hyperlink ref="B87" r:id="rId99" xr:uid="{7823E989-7B32-4D49-83EE-C33272356C23}"/>
+    <hyperlink ref="B91" r:id="rId100" xr:uid="{5DB75548-AA84-4439-A072-2382A5CC566E}"/>
+    <hyperlink ref="B93" r:id="rId101" xr:uid="{BA62B73E-4357-4C74-9CEE-1406B4CA2DB2}"/>
+    <hyperlink ref="B97" r:id="rId102" xr:uid="{5E423E34-AA5B-4E10-98AA-4F3350C665E9}"/>
+    <hyperlink ref="B99" r:id="rId103" xr:uid="{434FF047-11B0-4325-AE65-1CFAD4EC9E83}"/>
+    <hyperlink ref="B100" r:id="rId104" xr:uid="{3408F764-619F-4EC9-9FFC-E9620375B761}"/>
+    <hyperlink ref="B101" r:id="rId105" xr:uid="{A3CC5C11-B937-49C8-B61D-35A3F01335D1}"/>
+    <hyperlink ref="B102" r:id="rId106" xr:uid="{936AFE53-95B5-4979-BCD3-EA5277B1F0BA}"/>
+    <hyperlink ref="B103" r:id="rId107" xr:uid="{8A3EDA8A-B8D4-4856-8DB0-73A3E90E6A45}"/>
+    <hyperlink ref="B105" r:id="rId108" xr:uid="{861E37EB-368A-4352-AF4A-0430720EAD42}"/>
+    <hyperlink ref="B106" r:id="rId109" xr:uid="{015E7A0C-4EB2-4D58-90EE-BA8E361C6395}"/>
+    <hyperlink ref="B107" r:id="rId110" xr:uid="{769EE38A-AFE3-413D-BA90-AC15022B365A}"/>
+    <hyperlink ref="B108" r:id="rId111" xr:uid="{99B3A603-A777-4CFB-84F9-CAFB2E33BC9E}"/>
+    <hyperlink ref="B110" r:id="rId112" xr:uid="{9F612A38-8BB6-4419-A1F4-4BDEB1AD0D58}"/>
+    <hyperlink ref="B111" r:id="rId113" xr:uid="{0AD0DFEB-A4BC-4919-BC1F-8CCD1673A86D}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{F9203F6B-93D8-4036-8C4E-2EDFB6DB8CF9}"/>
+    <hyperlink ref="B113" r:id="rId115" xr:uid="{F7DE93ED-3A55-4F87-94A1-ADAEA0708858}"/>
+    <hyperlink ref="B116" r:id="rId116" xr:uid="{1C8B009D-3131-49BA-8614-A988CDE58F1B}"/>
+    <hyperlink ref="B117" r:id="rId117" xr:uid="{042D0151-8750-4928-A66E-9C8F535EEEFE}"/>
+    <hyperlink ref="B120" r:id="rId118" xr:uid="{A763F36B-E1CE-4547-AAC9-FB32189FBE56}"/>
+    <hyperlink ref="B121" r:id="rId119" xr:uid="{503279BD-9A76-444B-B93A-F7EA27D22673}"/>
+    <hyperlink ref="B123" r:id="rId120" xr:uid="{5282910D-C315-4E7E-BC5E-BAD5CBC5124E}"/>
+    <hyperlink ref="B124" r:id="rId121" xr:uid="{7E96DCD7-650E-47A0-94A1-75F8043413DE}"/>
+    <hyperlink ref="B125" r:id="rId122" xr:uid="{347FDA83-C109-4745-999B-49E582B18678}"/>
+    <hyperlink ref="B126" r:id="rId123" xr:uid="{C1D40A73-5960-499A-865F-2AE1E1D26427}"/>
+    <hyperlink ref="B29" r:id="rId124" xr:uid="{4E9E3918-E31B-4030-A4B7-E9105C0D877C}"/>
+    <hyperlink ref="B13" r:id="rId125" xr:uid="{D4F2FF10-D25F-4742-B4B2-90E29C6348F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId126"/>
@@ -10918,10 +11223,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>418</v>
       </c>
       <c r="C2" t="s">
@@ -10930,73 +11235,73 @@
       <c r="D2" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="18">
         <v>2</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="18">
         <v>2.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>422</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>425</v>
       </c>
       <c r="F4" t="s">
         <v>426</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" t="s">
         <v>427</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -11005,78 +11310,78 @@
       <c r="C6" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>429</v>
       </c>
       <c r="C7" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>431</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>433</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>432</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" t="s">
         <v>434</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -11085,155 +11390,155 @@
       <c r="C10" t="s">
         <v>419</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>439</v>
       </c>
       <c r="F10" t="s">
         <v>440</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>438</v>
       </c>
       <c r="C11" t="s">
         <v>420</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" t="s">
         <v>441</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>442</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E12" t="s">
         <v>444</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="18">
         <v>2</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="18">
         <v>2.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>447</v>
       </c>
       <c r="F14" t="s">
         <v>448</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="18">
         <v>1</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" t="s">
         <v>449</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="18">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>450</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>452</v>
       </c>
       <c r="F16" t="s">
         <v>453</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="18">
         <v>3</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="18">
         <v>3.9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" t="s">
         <v>451</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" t="s">
         <v>454</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -11288,45 +11593,45 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <v>11</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>459</v>
       </c>
       <c r="F20" t="s">
         <v>460</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" t="s">
         <v>461</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="18">
         <v>12</v>
       </c>
       <c r="B22" t="s">
@@ -11335,194 +11640,194 @@
       <c r="C22" t="s">
         <v>419</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="18" t="s">
         <v>464</v>
       </c>
       <c r="F22" t="s">
         <v>465</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="18">
         <v>1</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" t="s">
         <v>463</v>
       </c>
       <c r="C23" t="s">
         <v>420</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" t="s">
         <v>466</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="18">
         <v>13</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="18" t="s">
         <v>467</v>
       </c>
       <c r="F24" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="18">
         <v>3</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="18">
         <v>3.9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" t="s">
         <v>468</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="18">
         <v>14</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18" t="s">
         <v>467</v>
       </c>
       <c r="F26" t="s">
         <v>469</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="18">
         <v>1</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" t="s">
         <v>470</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="18">
         <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>471</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="18">
         <v>1</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" t="s">
         <v>472</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" t="s">
         <v>434</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="18">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>474</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="18">
         <v>2</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="18">
         <v>2.6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" t="s">
         <v>475</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="18">
         <v>17</v>
       </c>
       <c r="B32" t="s">
@@ -11531,38 +11836,38 @@
       <c r="C32" t="s">
         <v>419</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="18">
         <v>2</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="18">
         <v>2.6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" t="s">
         <v>477</v>
       </c>
       <c r="C33" t="s">
         <v>420</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="18">
         <v>18</v>
       </c>
       <c r="B34" t="s">
@@ -11571,80 +11876,80 @@
       <c r="C34" t="s">
         <v>419</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="18" t="s">
         <v>173</v>
       </c>
       <c r="E34" t="s">
         <v>480</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="18">
         <v>1</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" t="s">
         <v>479</v>
       </c>
       <c r="C35" t="s">
         <v>420</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="18"/>
       <c r="E35" t="s">
         <v>481</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="18">
         <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>482</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="18" t="s">
         <v>167</v>
       </c>
       <c r="E36" t="s">
         <v>484</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="18">
         <v>1</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" t="s">
         <v>483</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" t="s">
         <v>485</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="18">
         <v>20</v>
       </c>
       <c r="B38" t="s">
@@ -11653,118 +11958,118 @@
       <c r="C38" t="s">
         <v>419</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>489</v>
       </c>
       <c r="F38" t="s">
         <v>490</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="18">
         <v>2</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="18">
         <v>2.6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" t="s">
         <v>488</v>
       </c>
       <c r="C39" t="s">
         <v>420</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
       <c r="F39" t="s">
         <v>491</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="18">
         <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>492</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="18" t="s">
         <v>452</v>
       </c>
       <c r="F40" t="s">
         <v>494</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="18">
         <v>5</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="18">
         <v>6.6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" t="s">
         <v>493</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" t="s">
         <v>495</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="18">
         <v>22</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="18" t="s">
         <v>497</v>
       </c>
       <c r="F42" t="s">
         <v>498</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="18">
         <v>1</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" t="s">
         <v>499</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="18">
         <v>23</v>
       </c>
       <c r="B44" t="s">
@@ -11773,7 +12078,7 @@
       <c r="C44" t="s">
         <v>419</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="18" t="s">
         <v>502</v>
       </c>
       <c r="E44" t="s">
@@ -11782,71 +12087,71 @@
       <c r="F44" t="s">
         <v>505</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="18">
         <v>2</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="18">
         <v>2.6</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" t="s">
         <v>501</v>
       </c>
       <c r="C45" t="s">
         <v>420</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="18"/>
       <c r="E45" t="s">
         <v>504</v>
       </c>
       <c r="F45" t="s">
         <v>506</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="A46" s="18">
         <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="18">
         <v>4</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="18">
         <v>5.3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" t="s">
         <v>508</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="18">
         <v>25</v>
       </c>
       <c r="B48" t="s">
@@ -11855,40 +12160,40 @@
       <c r="C48" t="s">
         <v>419</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="18" t="s">
         <v>511</v>
       </c>
       <c r="F48" t="s">
         <v>512</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="18">
         <v>1</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="18"/>
       <c r="B49" t="s">
         <v>510</v>
       </c>
       <c r="C49" t="s">
         <v>420</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="F49" t="s">
         <v>513</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="18">
         <v>26</v>
       </c>
       <c r="B50" t="s">
@@ -11897,40 +12202,40 @@
       <c r="C50" t="s">
         <v>419</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="18" t="s">
         <v>515</v>
       </c>
       <c r="F50" t="s">
         <v>516</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="18">
         <v>6</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="18">
         <v>7.9</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="18"/>
       <c r="B51" t="s">
         <v>514</v>
       </c>
       <c r="C51" t="s">
         <v>420</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
       <c r="F51" t="s">
         <v>517</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="A52" s="18">
         <v>27</v>
       </c>
       <c r="B52" t="s">
@@ -11939,7 +12244,7 @@
       <c r="C52" t="s">
         <v>419</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E52" t="s">
@@ -11948,41 +12253,41 @@
       <c r="F52" t="s">
         <v>522</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="18">
         <v>1</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="18">
         <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="18"/>
       <c r="B53" t="s">
         <v>519</v>
       </c>
       <c r="C53" t="s">
         <v>420</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="18"/>
       <c r="E53" t="s">
         <v>521</v>
       </c>
       <c r="F53" t="s">
         <v>523</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17">
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18">
         <v>76</v>
       </c>
       <c r="H54">
@@ -11990,150 +12295,19 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
       <c r="H55">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:E3"/>
@@ -12158,6 +12332,137 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G50:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
